--- a/capiq_data/in_process_data/IQ260149.xlsx
+++ b/capiq_data/in_process_data/IQ260149.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A816E0-24C8-43B7-8150-6528DF84D2E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C90B300-38A9-410E-AFE1-15D96D29D632}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1cefad90-ea42-42a3-86ed-c482ccd3c9d2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"abf8e7b2-75fe-4890-b45e-0c8b5d8648c5"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>57.121000000000002</v>
       </c>
       <c r="D2">
-        <v>1722</v>
+        <v>527.17999999999995</v>
       </c>
       <c r="E2">
-        <v>713</v>
+        <v>182.45400000000001</v>
       </c>
       <c r="F2">
-        <v>1279</v>
+        <v>259.77600000000001</v>
       </c>
       <c r="G2">
-        <v>1143</v>
+        <v>376.50400000000002</v>
       </c>
       <c r="H2">
-        <v>22038</v>
+        <v>6393.29</v>
       </c>
       <c r="I2">
-        <v>300</v>
+        <v>127.28700000000001</v>
       </c>
       <c r="J2">
-        <v>7316</v>
+        <v>3050.2919999999999</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,120 +892,120 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1011</v>
+        <v>743.37</v>
       </c>
       <c r="O2">
-        <v>12391</v>
+        <v>4272.9160000000002</v>
       </c>
       <c r="P2">
-        <v>7328</v>
+        <v>3476.2539999999999</v>
       </c>
       <c r="Q2">
-        <v>-70</v>
+        <v>-52.606000000000002</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>20300</v>
+        <v>6860</v>
       </c>
       <c r="T2">
-        <v>9647</v>
+        <v>2120.3739999999998</v>
       </c>
       <c r="U2">
-        <v>173</v>
+        <v>19.039000000000001</v>
       </c>
       <c r="V2">
-        <v>564</v>
+        <v>124.98699999999999</v>
       </c>
       <c r="W2">
-        <v>-221</v>
+        <v>-6.7690000000000001</v>
       </c>
       <c r="X2">
-        <v>-373</v>
+        <v>-16.64</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>12.727</v>
       </c>
       <c r="AA2">
-        <v>225</v>
+        <v>57.121000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>211</v>
+        <v>46.722000000000001</v>
       </c>
       <c r="D3">
-        <v>1696</v>
+        <v>411.60199999999998</v>
       </c>
       <c r="E3">
-        <v>667.84199999999998</v>
+        <v>271.46800000000002</v>
       </c>
       <c r="F3">
-        <v>1084</v>
+        <v>208.10599999999999</v>
       </c>
       <c r="G3">
-        <v>1140.7360000000001</v>
+        <v>335.31900000000002</v>
       </c>
       <c r="H3">
-        <v>21901.457999999999</v>
+        <v>6388.7250000000004</v>
       </c>
       <c r="I3">
-        <v>298.68700000000001</v>
+        <v>97.227000000000004</v>
       </c>
       <c r="J3">
-        <v>7168.2510000000002</v>
+        <v>2980.442</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>319.34699999999998</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-148</v>
+        <v>-189.51400000000001</v>
       </c>
       <c r="N3">
-        <v>1073.0070000000001</v>
+        <v>792.90099999999995</v>
       </c>
       <c r="O3">
-        <v>12242.851000000001</v>
+        <v>4313.7190000000001</v>
       </c>
       <c r="P3">
-        <v>7179.79</v>
+        <v>3455.3629999999998</v>
       </c>
       <c r="Q3">
-        <v>97</v>
+        <v>-3.302</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>9658.607</v>
+        <v>2075.0059999999999</v>
       </c>
       <c r="U3">
-        <v>269.65899999999999</v>
+        <v>15.872999999999999</v>
       </c>
       <c r="V3">
-        <v>670</v>
+        <v>169.595</v>
       </c>
       <c r="W3">
-        <v>-222</v>
+        <v>-7.1319999999999997</v>
       </c>
       <c r="X3">
-        <v>-365</v>
+        <v>-22.678999999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>211</v>
+        <v>46.722000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>154.24100000000001</v>
       </c>
       <c r="D4">
-        <v>4406</v>
+        <v>409.25</v>
       </c>
       <c r="E4">
-        <v>1830</v>
+        <v>351.42099999999999</v>
       </c>
       <c r="F4">
-        <v>2651</v>
+        <v>204.77799999999999</v>
       </c>
       <c r="G4">
-        <v>5007</v>
+        <v>429.89400000000001</v>
       </c>
       <c r="H4">
-        <v>54842</v>
+        <v>6511.9049999999997</v>
       </c>
       <c r="I4">
-        <v>1256</v>
+        <v>101.804</v>
       </c>
       <c r="J4">
-        <v>19734</v>
+        <v>2961.748</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>215.02500000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5064</v>
+        <v>775.64800000000002</v>
       </c>
       <c r="O4">
-        <v>33201</v>
+        <v>4275.1859999999997</v>
       </c>
       <c r="P4">
-        <v>21344</v>
+        <v>3331.7350000000001</v>
       </c>
       <c r="Q4">
-        <v>2276</v>
+        <v>23.445</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>21641</v>
+        <v>2236.7190000000001</v>
       </c>
       <c r="U4">
-        <v>2546</v>
+        <v>39.323</v>
       </c>
       <c r="V4">
-        <v>1348</v>
+        <v>261.26</v>
       </c>
       <c r="W4">
-        <v>-435</v>
+        <v>-7.2359999999999998</v>
       </c>
       <c r="X4">
-        <v>1082</v>
+        <v>-129.36799999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>115</v>
+        <v>154.24100000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>138</v>
+        <v>92.305000000000007</v>
       </c>
       <c r="D5">
-        <v>4596</v>
+        <v>423.97300000000001</v>
       </c>
       <c r="E5">
-        <v>1998</v>
+        <v>308.27699999999999</v>
       </c>
       <c r="F5">
-        <v>2663</v>
+        <v>214.364</v>
       </c>
       <c r="G5">
-        <v>3808</v>
+        <v>363.80500000000001</v>
       </c>
       <c r="H5">
-        <v>56735</v>
+        <v>6389.3220000000001</v>
       </c>
       <c r="I5">
-        <v>1360</v>
+        <v>96.123000000000005</v>
       </c>
       <c r="J5">
-        <v>21142</v>
+        <v>2802.3009999999999</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4737</v>
+        <v>762.38900000000001</v>
       </c>
       <c r="O5">
-        <v>34759</v>
+        <v>4100.8909999999996</v>
       </c>
       <c r="P5">
-        <v>22176</v>
+        <v>3116.6860000000001</v>
       </c>
       <c r="Q5">
-        <v>-1423</v>
+        <v>-21.033000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>49250</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>21976</v>
+        <v>2288.431</v>
       </c>
       <c r="U5">
-        <v>1123</v>
+        <v>21.372</v>
       </c>
       <c r="V5">
-        <v>1455</v>
+        <v>252.292</v>
       </c>
       <c r="W5">
-        <v>-448</v>
+        <v>-7.14</v>
       </c>
       <c r="X5">
-        <v>-476</v>
+        <v>-220.86</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>138</v>
+        <v>92.305000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>49.762999999999998</v>
       </c>
       <c r="D6">
-        <v>4653</v>
+        <v>434.67899999999997</v>
       </c>
       <c r="E6">
-        <v>1919</v>
+        <v>205.99</v>
       </c>
       <c r="F6">
-        <v>3096</v>
+        <v>225.30799999999999</v>
       </c>
       <c r="G6">
-        <v>3517</v>
+        <v>229.91300000000001</v>
       </c>
       <c r="H6">
-        <v>56044</v>
+        <v>6318.6840000000002</v>
       </c>
       <c r="I6">
-        <v>1400</v>
+        <v>61.055999999999997</v>
       </c>
       <c r="J6">
-        <v>21356</v>
+        <v>2087.5</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4017</v>
+        <v>1238.8820000000001</v>
       </c>
       <c r="O6">
-        <v>35217</v>
+        <v>3958.056</v>
       </c>
       <c r="P6">
-        <v>21836</v>
+        <v>3096.3339999999998</v>
       </c>
       <c r="Q6">
-        <v>-995</v>
+        <v>-7.0209999999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>49200</v>
+        <v>6900</v>
       </c>
       <c r="T6">
-        <v>20827</v>
+        <v>2360.6280000000002</v>
       </c>
       <c r="U6">
-        <v>128</v>
+        <v>3.496</v>
       </c>
       <c r="V6">
-        <v>728</v>
+        <v>125.224</v>
       </c>
       <c r="W6">
-        <v>-451</v>
+        <v>-7.1449999999999996</v>
       </c>
       <c r="X6">
-        <v>-818</v>
+        <v>-22.466000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,122 +1263,122 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>109</v>
+        <v>49.762999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>70.766999999999996</v>
       </c>
       <c r="D7">
-        <v>4610</v>
+        <v>422.91800000000001</v>
       </c>
       <c r="E7">
-        <v>1879</v>
+        <v>203.267</v>
       </c>
       <c r="F7">
-        <v>2733</v>
+        <v>216.07400000000001</v>
       </c>
       <c r="G7">
-        <v>4882</v>
+        <v>276.697</v>
       </c>
       <c r="H7">
-        <v>56842</v>
+        <v>6379.44</v>
       </c>
       <c r="I7">
-        <v>1026</v>
+        <v>93.959000000000003</v>
       </c>
       <c r="J7">
-        <v>20667</v>
+        <v>2081.3960000000002</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1126</v>
+        <v>-92.721999999999994</v>
       </c>
       <c r="N7">
-        <v>5643</v>
+        <v>1229.4580000000001</v>
       </c>
       <c r="O7">
-        <v>36204</v>
+        <v>3975.0349999999999</v>
       </c>
       <c r="P7">
-        <v>22867</v>
+        <v>3003.3620000000001</v>
       </c>
       <c r="Q7">
-        <v>1402</v>
+        <v>48.642000000000003</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>47900</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>20638</v>
+        <v>2404.4050000000002</v>
       </c>
       <c r="U7">
-        <v>1530</v>
+        <v>52.137999999999998</v>
       </c>
       <c r="V7">
-        <v>1583</v>
+        <v>263.54399999999998</v>
       </c>
       <c r="W7">
-        <v>-452</v>
+        <v>-7.508</v>
       </c>
       <c r="X7">
-        <v>481</v>
+        <v>-97.197000000000003</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>2.1040000000000001</v>
       </c>
       <c r="AA7">
-        <v>200</v>
+        <v>70.766999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>78.763000000000005</v>
       </c>
       <c r="D8">
-        <v>4612</v>
+        <v>438.702</v>
       </c>
       <c r="E8">
-        <v>1920</v>
+        <v>174.83699999999999</v>
       </c>
       <c r="F8">
-        <v>2700</v>
+        <v>208.66900000000001</v>
       </c>
       <c r="G8">
-        <v>3847</v>
+        <v>495.81799999999998</v>
       </c>
       <c r="H8">
-        <v>55090</v>
+        <v>6637.308</v>
       </c>
       <c r="I8">
-        <v>1134</v>
+        <v>81.087000000000003</v>
       </c>
       <c r="J8">
-        <v>19682</v>
+        <v>2750.1880000000001</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5207</v>
+        <v>696.55399999999997</v>
       </c>
       <c r="O8">
-        <v>34779</v>
+        <v>4179.2190000000001</v>
       </c>
       <c r="P8">
-        <v>21585</v>
+        <v>3182.585</v>
       </c>
       <c r="Q8">
-        <v>-1249</v>
+        <v>249.93199999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>47100</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>20311</v>
+        <v>2458.0889999999999</v>
       </c>
       <c r="U8">
-        <v>281</v>
+        <v>302.07</v>
       </c>
       <c r="V8">
-        <v>1216</v>
+        <v>185.89500000000001</v>
       </c>
       <c r="W8">
-        <v>-453</v>
+        <v>-7.5119999999999996</v>
       </c>
       <c r="X8">
-        <v>-1954</v>
+        <v>162.85900000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="AA8">
-        <v>74</v>
+        <v>78.763000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>270</v>
+        <v>607.74900000000002</v>
       </c>
       <c r="D9">
-        <v>4571</v>
+        <v>524.49699999999996</v>
       </c>
       <c r="E9">
-        <v>1971</v>
+        <v>281.733</v>
       </c>
       <c r="F9">
-        <v>2628</v>
+        <v>266.57299999999998</v>
       </c>
       <c r="G9">
-        <v>3833</v>
+        <v>594.16200000000003</v>
       </c>
       <c r="H9">
-        <v>54632</v>
+        <v>8065.375</v>
       </c>
       <c r="I9">
-        <v>1320</v>
+        <v>67.417000000000002</v>
       </c>
       <c r="J9">
-        <v>19508</v>
+        <v>3650.0459999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4931</v>
+        <v>699.077</v>
       </c>
       <c r="O9">
-        <v>34435</v>
+        <v>5001.4520000000002</v>
       </c>
       <c r="P9">
-        <v>20706</v>
+        <v>3678.4769999999999</v>
       </c>
       <c r="Q9">
-        <v>-87</v>
+        <v>-7.8310000000000004</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>46500</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>20197</v>
+        <v>3063.9229999999998</v>
       </c>
       <c r="U9">
-        <v>194</v>
+        <v>294.23899999999998</v>
       </c>
       <c r="V9">
-        <v>1887</v>
+        <v>1814.864</v>
       </c>
       <c r="W9">
-        <v>-452</v>
+        <v>-7.5430000000000001</v>
       </c>
       <c r="X9">
-        <v>-1286</v>
+        <v>463.36599999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="AA9">
-        <v>270</v>
+        <v>607.74900000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>233</v>
+        <v>44.344999999999999</v>
       </c>
       <c r="D10">
-        <v>4583</v>
+        <v>585.87900000000002</v>
       </c>
       <c r="E10">
-        <v>1898</v>
+        <v>272.99200000000002</v>
       </c>
       <c r="F10">
-        <v>3143</v>
+        <v>306.99099999999999</v>
       </c>
       <c r="G10">
-        <v>3638</v>
+        <v>295.90199999999999</v>
       </c>
       <c r="H10">
-        <v>53940</v>
+        <v>7770.4080000000004</v>
       </c>
       <c r="I10">
-        <v>1207</v>
+        <v>64.825000000000003</v>
       </c>
       <c r="J10">
-        <v>19400</v>
+        <v>3579.422</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4595</v>
+        <v>388.10399999999998</v>
       </c>
       <c r="O10">
-        <v>34651</v>
+        <v>4656.3370000000004</v>
       </c>
       <c r="P10">
-        <v>20605</v>
+        <v>3650.1590000000001</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>-290.57799999999997</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>47000</v>
+        <v>6960</v>
       </c>
       <c r="T10">
-        <v>19289</v>
+        <v>3114.0709999999999</v>
       </c>
       <c r="U10">
-        <v>211</v>
+        <v>3.661</v>
       </c>
       <c r="V10">
-        <v>1379</v>
+        <v>-147.38999999999999</v>
       </c>
       <c r="W10">
-        <v>-454</v>
+        <v>-7.593</v>
       </c>
       <c r="X10">
-        <v>-536</v>
+        <v>-22.687000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.7190000000000001</v>
       </c>
       <c r="AA10">
-        <v>233</v>
+        <v>44.344999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>298</v>
+        <v>83.918999999999997</v>
       </c>
       <c r="D11">
-        <v>4513</v>
+        <v>578.01400000000001</v>
       </c>
       <c r="E11">
-        <v>1924</v>
+        <v>235.95</v>
       </c>
       <c r="F11">
-        <v>2717</v>
+        <v>400.154</v>
       </c>
       <c r="G11">
-        <v>3875</v>
+        <v>276.40199999999999</v>
       </c>
       <c r="H11">
-        <v>53729</v>
+        <v>7699.8249999999998</v>
       </c>
       <c r="I11">
-        <v>1094</v>
+        <v>89.052000000000007</v>
       </c>
       <c r="J11">
-        <v>19595</v>
+        <v>3291.5909999999999</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,81 +1636,81 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-801</v>
+        <v>-242.47399999999999</v>
       </c>
       <c r="N11">
-        <v>4583</v>
+        <v>508.38600000000002</v>
       </c>
       <c r="O11">
-        <v>34873</v>
+        <v>4541.2650000000003</v>
       </c>
       <c r="P11">
-        <v>20788</v>
+        <v>3411.4850000000001</v>
       </c>
       <c r="Q11">
-        <v>265</v>
+        <v>15.077</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>45800</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>18856</v>
+        <v>3158.56</v>
       </c>
       <c r="U11">
-        <v>476</v>
+        <v>18.738</v>
       </c>
       <c r="V11">
-        <v>1387</v>
+        <v>319.30099999999999</v>
       </c>
       <c r="W11">
-        <v>-341</v>
+        <v>-7.9610000000000003</v>
       </c>
       <c r="X11">
-        <v>-538</v>
+        <v>-245.23599999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1.103</v>
       </c>
       <c r="AA11">
-        <v>298</v>
+        <v>83.918999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>269</v>
+        <v>87.367000000000004</v>
       </c>
       <c r="D12">
-        <v>4525</v>
+        <v>586.72900000000004</v>
       </c>
       <c r="E12">
-        <v>1900</v>
+        <v>238.089</v>
       </c>
       <c r="F12">
-        <v>2652</v>
+        <v>402.76900000000001</v>
       </c>
       <c r="G12">
-        <v>3648</v>
+        <v>282.738</v>
       </c>
       <c r="H12">
-        <v>53254</v>
+        <v>7693.0479999999998</v>
       </c>
       <c r="I12">
-        <v>1285</v>
+        <v>103.64</v>
       </c>
       <c r="J12">
-        <v>20283</v>
+        <v>3137.7719999999999</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3748</v>
+        <v>519.53200000000004</v>
       </c>
       <c r="O12">
-        <v>34854</v>
+        <v>4422.5240000000003</v>
       </c>
       <c r="P12">
-        <v>20585</v>
+        <v>3256.7130000000002</v>
       </c>
       <c r="Q12">
-        <v>-262</v>
+        <v>5.5839999999999996</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
-        <v>46900</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>18400</v>
+        <v>3270.5239999999999</v>
       </c>
       <c r="U12">
-        <v>214</v>
+        <v>24.321999999999999</v>
       </c>
       <c r="V12">
-        <v>1469</v>
+        <v>259.77199999999999</v>
       </c>
       <c r="W12">
-        <v>-320</v>
+        <v>-8.0009999999999994</v>
       </c>
       <c r="X12">
-        <v>-1003</v>
+        <v>-122.902</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AA12">
-        <v>269</v>
+        <v>87.367000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-1045</v>
+        <v>90.978999999999999</v>
       </c>
       <c r="D13">
-        <v>4515</v>
+        <v>600.26400000000001</v>
       </c>
       <c r="E13">
-        <v>1911</v>
+        <v>246.34399999999999</v>
       </c>
       <c r="F13">
-        <v>2597</v>
+        <v>410.07100000000003</v>
       </c>
       <c r="G13">
-        <v>3812</v>
+        <v>423.00099999999998</v>
       </c>
       <c r="H13">
-        <v>51984</v>
+        <v>7811.8209999999999</v>
       </c>
       <c r="I13">
-        <v>1158</v>
+        <v>119.23399999999999</v>
       </c>
       <c r="J13">
-        <v>20391</v>
+        <v>3119.3780000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3978</v>
+        <v>535.01700000000005</v>
       </c>
       <c r="O13">
-        <v>35270</v>
+        <v>4450.2479999999996</v>
       </c>
       <c r="P13">
-        <v>20582</v>
+        <v>3234.5450000000001</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>133.62200000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>46700</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>16714</v>
+        <v>3361.5729999999999</v>
       </c>
       <c r="U13">
-        <v>266</v>
+        <v>157.94399999999999</v>
       </c>
       <c r="V13">
-        <v>1552</v>
+        <v>249.34899999999999</v>
       </c>
       <c r="W13">
-        <v>-325</v>
+        <v>-8.0239999999999991</v>
       </c>
       <c r="X13">
-        <v>-695</v>
+        <v>-7.5170000000000003</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>-1045</v>
+        <v>90.978999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>239</v>
+        <v>82.441999999999993</v>
       </c>
       <c r="D14">
-        <v>4542</v>
+        <v>602.60299999999995</v>
       </c>
       <c r="E14">
-        <v>1959</v>
+        <v>236.18700000000001</v>
       </c>
       <c r="F14">
-        <v>3092</v>
+        <v>415.40600000000001</v>
       </c>
       <c r="G14">
-        <v>3907</v>
+        <v>462.93900000000002</v>
       </c>
       <c r="H14">
-        <v>51787</v>
+        <v>7895.8519999999999</v>
       </c>
       <c r="I14">
-        <v>1111</v>
+        <v>124.32</v>
       </c>
       <c r="J14">
-        <v>20181</v>
+        <v>3120.9949999999999</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4409</v>
+        <v>471.38299999999998</v>
       </c>
       <c r="O14">
-        <v>34596</v>
+        <v>4410.1180000000004</v>
       </c>
       <c r="P14">
-        <v>20966</v>
+        <v>3193.4479999999999</v>
       </c>
       <c r="Q14">
-        <v>-98</v>
+        <v>45.237000000000002</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>46600</v>
+        <v>6720</v>
       </c>
       <c r="T14">
-        <v>17191</v>
+        <v>3485.7339999999999</v>
       </c>
       <c r="U14">
-        <v>168</v>
+        <v>203.18100000000001</v>
       </c>
       <c r="V14">
-        <v>1151</v>
+        <v>239.542</v>
       </c>
       <c r="W14">
-        <v>-315</v>
+        <v>-8.0310000000000006</v>
       </c>
       <c r="X14">
-        <v>-218</v>
+        <v>-28.151</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>239</v>
+        <v>82.441999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>203</v>
+        <v>83.278999999999996</v>
       </c>
       <c r="D15">
-        <v>4538</v>
+        <v>593.70399999999995</v>
       </c>
       <c r="E15">
-        <v>1887</v>
+        <v>213.68100000000001</v>
       </c>
       <c r="F15">
-        <v>2603</v>
+        <v>412.15499999999997</v>
       </c>
       <c r="G15">
-        <v>3748</v>
+        <v>513.1</v>
       </c>
       <c r="H15">
-        <v>51166</v>
+        <v>7896.5050000000001</v>
       </c>
       <c r="I15">
-        <v>1183</v>
+        <v>127.833</v>
       </c>
       <c r="J15">
-        <v>19814</v>
+        <v>3016.9920000000002</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-47</v>
+        <v>-7.0289999999999999</v>
       </c>
       <c r="N15">
-        <v>4621</v>
+        <v>610.43700000000001</v>
       </c>
       <c r="O15">
-        <v>34368</v>
+        <v>4481.8609999999999</v>
       </c>
       <c r="P15">
-        <v>20940</v>
+        <v>3189.25</v>
       </c>
       <c r="Q15">
-        <v>51</v>
+        <v>70.111999999999995</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>47000</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>16798</v>
+        <v>3414.6439999999998</v>
       </c>
       <c r="U15">
-        <v>219</v>
+        <v>273.29300000000001</v>
       </c>
       <c r="V15">
-        <v>1380</v>
+        <v>283.44</v>
       </c>
       <c r="W15">
-        <v>-309</v>
+        <v>-8.2530000000000001</v>
       </c>
       <c r="X15">
-        <v>-647</v>
+        <v>-151.56200000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="AA15">
-        <v>203</v>
+        <v>83.278999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>193</v>
+        <v>83.284000000000006</v>
       </c>
       <c r="D16">
-        <v>4541</v>
+        <v>603.55499999999995</v>
       </c>
       <c r="E16">
-        <v>1986</v>
+        <v>219.69399999999999</v>
       </c>
       <c r="F16">
-        <v>2579</v>
+        <v>413.32900000000001</v>
       </c>
       <c r="G16">
-        <v>3598</v>
+        <v>336.88</v>
       </c>
       <c r="H16">
-        <v>50614</v>
+        <v>7684.3379999999997</v>
       </c>
       <c r="I16">
-        <v>1153</v>
+        <v>137.886</v>
       </c>
       <c r="J16">
-        <v>19771</v>
+        <v>2883.7840000000001</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4443</v>
+        <v>533.89700000000005</v>
       </c>
       <c r="O16">
-        <v>34016</v>
+        <v>4331.1940000000004</v>
       </c>
       <c r="P16">
-        <v>20959</v>
+        <v>3005.24</v>
       </c>
       <c r="Q16">
-        <v>-38</v>
+        <v>-176.90700000000001</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>45500</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>16598</v>
+        <v>3353.1439999999998</v>
       </c>
       <c r="U16">
-        <v>181</v>
+        <v>96.385999999999996</v>
       </c>
       <c r="V16">
-        <v>1129</v>
+        <v>219.91800000000001</v>
       </c>
       <c r="W16">
-        <v>-307</v>
+        <v>-8.0359999999999996</v>
       </c>
       <c r="X16">
-        <v>-430</v>
+        <v>-301.50900000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>3.7429999999999999</v>
       </c>
       <c r="AA16">
-        <v>193</v>
+        <v>83.284000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>188</v>
+        <v>86.191999999999993</v>
       </c>
       <c r="D17">
-        <v>4514</v>
+        <v>603.87900000000002</v>
       </c>
       <c r="E17">
-        <v>1978</v>
+        <v>242.76400000000001</v>
       </c>
       <c r="F17">
-        <v>2539</v>
+        <v>412.87900000000002</v>
       </c>
       <c r="G17">
-        <v>4018</v>
+        <v>430.83600000000001</v>
       </c>
       <c r="H17">
-        <v>50646</v>
+        <v>7790.3339999999998</v>
       </c>
       <c r="I17">
-        <v>1069</v>
+        <v>144.977</v>
       </c>
       <c r="J17">
-        <v>19982</v>
+        <v>2900.9639999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4577</v>
+        <v>540.08600000000001</v>
       </c>
       <c r="O17">
-        <v>34201</v>
+        <v>4382.5889999999999</v>
       </c>
       <c r="P17">
-        <v>21151</v>
+        <v>3022.12</v>
       </c>
       <c r="Q17">
-        <v>553</v>
+        <v>72.588999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>45100</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>16445</v>
+        <v>3407.7449999999999</v>
       </c>
       <c r="U17">
-        <v>734</v>
+        <v>168.97499999999999</v>
       </c>
       <c r="V17">
-        <v>1428</v>
+        <v>232.43600000000001</v>
       </c>
       <c r="W17">
-        <v>-308</v>
+        <v>-7.87</v>
       </c>
       <c r="X17">
-        <v>-181</v>
+        <v>-36.222999999999999</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-22.974</v>
       </c>
       <c r="AA17">
-        <v>188</v>
+        <v>86.191999999999993</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>188</v>
+        <v>84.489000000000004</v>
       </c>
       <c r="D18">
-        <v>4438</v>
+        <v>606.23400000000004</v>
       </c>
       <c r="E18">
-        <v>1966</v>
+        <v>232.58</v>
       </c>
       <c r="F18">
-        <v>2925</v>
+        <v>413.596</v>
       </c>
       <c r="G18">
-        <v>2696</v>
+        <v>419.84699999999998</v>
       </c>
       <c r="H18">
-        <v>49103</v>
+        <v>7796.9530000000004</v>
       </c>
       <c r="I18">
-        <v>1226</v>
+        <v>141.61799999999999</v>
       </c>
       <c r="J18">
-        <v>19953</v>
+        <v>2768.3020000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3918</v>
+        <v>691.61800000000005</v>
       </c>
       <c r="O18">
-        <v>34080</v>
+        <v>4379.68</v>
       </c>
       <c r="P18">
-        <v>20503</v>
+        <v>3017.9189999999999</v>
       </c>
       <c r="Q18">
-        <v>-606</v>
+        <v>-1.76</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>45000</v>
+        <v>6800</v>
       </c>
       <c r="T18">
-        <v>15023</v>
+        <v>3417.2730000000001</v>
       </c>
       <c r="U18">
-        <v>128</v>
+        <v>167.215</v>
       </c>
       <c r="V18">
-        <v>1251</v>
+        <v>220.03700000000001</v>
       </c>
       <c r="W18">
-        <v>-304</v>
+        <v>-7.702</v>
       </c>
       <c r="X18">
-        <v>-893</v>
+        <v>-89.191999999999993</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AA18">
-        <v>188</v>
+        <v>84.489000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>192</v>
+        <v>79.616</v>
       </c>
       <c r="D19">
-        <v>4451</v>
+        <v>595.28200000000004</v>
       </c>
       <c r="E19">
-        <v>1973</v>
+        <v>225.69300000000001</v>
       </c>
       <c r="F19">
-        <v>2540</v>
+        <v>403.28899999999999</v>
       </c>
       <c r="G19">
-        <v>3468</v>
+        <v>378.60599999999999</v>
       </c>
       <c r="H19">
-        <v>49520</v>
+        <v>7702.5240000000003</v>
       </c>
       <c r="I19">
-        <v>1068</v>
+        <v>141.524</v>
       </c>
       <c r="J19">
-        <v>20254</v>
+        <v>2694.203</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-811</v>
+        <v>-509.25400000000002</v>
       </c>
       <c r="N19">
-        <v>3579</v>
+        <v>611.07799999999997</v>
       </c>
       <c r="O19">
-        <v>34755</v>
+        <v>4273.34</v>
       </c>
       <c r="P19">
-        <v>20456</v>
+        <v>2839.0140000000001</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>-37.884</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>44800</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>14765</v>
+        <v>3429.1840000000002</v>
       </c>
       <c r="U19">
-        <v>155</v>
+        <v>129.33099999999999</v>
       </c>
       <c r="V19">
-        <v>1336</v>
+        <v>256.81900000000002</v>
       </c>
       <c r="W19">
-        <v>-304</v>
+        <v>-8.0739999999999998</v>
       </c>
       <c r="X19">
-        <v>-699</v>
+        <v>-217.084</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>192</v>
+        <v>79.616</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>143</v>
+        <v>85.117999999999995</v>
       </c>
       <c r="D20">
-        <v>4419</v>
+        <v>606.41300000000001</v>
       </c>
       <c r="E20">
-        <v>1955</v>
+        <v>228.095</v>
       </c>
       <c r="F20">
-        <v>2460</v>
+        <v>411.54</v>
       </c>
       <c r="G20">
-        <v>3305</v>
+        <v>351.35700000000003</v>
       </c>
       <c r="H20">
-        <v>48977</v>
+        <v>7710.0379999999996</v>
       </c>
       <c r="I20">
-        <v>1049</v>
+        <v>141.38200000000001</v>
       </c>
       <c r="J20">
-        <v>18834</v>
+        <v>2709.3989999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4797</v>
+        <v>601.298</v>
       </c>
       <c r="O20">
-        <v>34390</v>
+        <v>4266.9309999999996</v>
       </c>
       <c r="P20">
-        <v>20353</v>
+        <v>2853.5340000000001</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-28.869</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>44400</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>14587</v>
+        <v>3443.107</v>
       </c>
       <c r="U20">
-        <v>155</v>
+        <v>100.462</v>
       </c>
       <c r="V20">
-        <v>1145</v>
+        <v>222.09399999999999</v>
       </c>
       <c r="W20">
-        <v>-305</v>
+        <v>-7.8819999999999997</v>
       </c>
       <c r="X20">
-        <v>-497</v>
+        <v>-77.900000000000006</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2.339</v>
       </c>
       <c r="AA20">
-        <v>143</v>
+        <v>85.117999999999995</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>205</v>
+        <v>91.411000000000001</v>
       </c>
       <c r="D21">
-        <v>4554</v>
+        <v>657.08500000000004</v>
       </c>
       <c r="E21">
-        <v>1951</v>
+        <v>239.04599999999999</v>
       </c>
       <c r="F21">
-        <v>2561</v>
+        <v>434.36099999999999</v>
       </c>
       <c r="G21">
-        <v>3350</v>
+        <v>528.351</v>
       </c>
       <c r="H21">
-        <v>48754</v>
+        <v>7842.5360000000001</v>
       </c>
       <c r="I21">
-        <v>1087</v>
+        <v>108.39100000000001</v>
       </c>
       <c r="J21">
-        <v>18504</v>
+        <v>2500.27</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5547</v>
+        <v>807.56700000000001</v>
       </c>
       <c r="O21">
-        <v>34504</v>
+        <v>4287.1009999999997</v>
       </c>
       <c r="P21">
-        <v>20414</v>
+        <v>2834.846</v>
       </c>
       <c r="Q21">
-        <v>200</v>
+        <v>168.03899999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>43100</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>14250</v>
+        <v>3555.4349999999999</v>
       </c>
       <c r="U21">
-        <v>355</v>
+        <v>268.50099999999998</v>
       </c>
       <c r="V21">
-        <v>1475</v>
+        <v>254.45599999999999</v>
       </c>
       <c r="W21">
-        <v>-296</v>
+        <v>-7.9530000000000003</v>
       </c>
       <c r="X21">
-        <v>-511</v>
+        <v>15.013</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>205</v>
+        <v>91.411000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>338</v>
+        <v>78.334000000000003</v>
       </c>
       <c r="D22">
-        <v>4476</v>
+        <v>620.47199999999998</v>
       </c>
       <c r="E22">
-        <v>1925</v>
+        <v>236.714</v>
       </c>
       <c r="F22">
-        <v>3028</v>
+        <v>408.13299999999998</v>
       </c>
       <c r="G22">
-        <v>2650</v>
+        <v>423.01600000000002</v>
       </c>
       <c r="H22">
-        <v>47604</v>
+        <v>7762.7070000000003</v>
       </c>
       <c r="I22">
-        <v>968</v>
+        <v>104.444</v>
       </c>
       <c r="J22">
-        <v>18722</v>
+        <v>2393.7150000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4604</v>
+        <v>746.23</v>
       </c>
       <c r="O22">
-        <v>33544</v>
+        <v>4137.0619999999999</v>
       </c>
       <c r="P22">
-        <v>20225</v>
+        <v>2670.451</v>
       </c>
       <c r="Q22">
-        <v>-229</v>
+        <v>-109.655</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>43000</v>
+        <v>6900</v>
       </c>
       <c r="T22">
-        <v>14060</v>
+        <v>3625.645</v>
       </c>
       <c r="U22">
-        <v>126</v>
+        <v>158.846</v>
       </c>
       <c r="V22">
-        <v>1196</v>
+        <v>231.37</v>
       </c>
       <c r="W22">
-        <v>-293</v>
+        <v>-7.9530000000000003</v>
       </c>
       <c r="X22">
-        <v>-594</v>
+        <v>-211.745</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,122 +2591,122 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>338</v>
+        <v>78.334000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>236</v>
+        <v>69.260000000000005</v>
       </c>
       <c r="D23">
-        <v>4401</v>
+        <v>611.29100000000005</v>
       </c>
       <c r="E23">
-        <v>1871</v>
+        <v>213.096</v>
       </c>
       <c r="F23">
-        <v>2501</v>
+        <v>394.23599999999999</v>
       </c>
       <c r="G23">
-        <v>2926</v>
+        <v>253.083</v>
       </c>
       <c r="H23">
-        <v>47517</v>
+        <v>7524.1409999999996</v>
       </c>
       <c r="I23">
-        <v>1039</v>
+        <v>99.81</v>
       </c>
       <c r="J23">
-        <v>19508</v>
+        <v>2353.8589999999999</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-435</v>
+        <v>-8.0020000000000007</v>
       </c>
       <c r="N23">
-        <v>3826</v>
+        <v>978.37699999999995</v>
       </c>
       <c r="O23">
-        <v>33481</v>
+        <v>4381.3599999999997</v>
       </c>
       <c r="P23">
-        <v>20025</v>
+        <v>2925.3150000000001</v>
       </c>
       <c r="Q23">
-        <v>312</v>
+        <v>-143.52600000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>42800</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>14036</v>
+        <v>3142.7809999999999</v>
       </c>
       <c r="U23">
-        <v>438</v>
+        <v>15.32</v>
       </c>
       <c r="V23">
-        <v>1423</v>
+        <v>184.03</v>
       </c>
       <c r="W23">
-        <v>-290</v>
+        <v>-7.3010000000000002</v>
       </c>
       <c r="X23">
-        <v>-506</v>
+        <v>-261.83800000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-5.2220000000000004</v>
       </c>
       <c r="AA23">
-        <v>236</v>
+        <v>69.260000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>196</v>
+        <v>152.21</v>
       </c>
       <c r="D24">
-        <v>4398</v>
+        <v>608.90700000000004</v>
       </c>
       <c r="E24">
-        <v>1972</v>
+        <v>214.989</v>
       </c>
       <c r="F24">
-        <v>2449</v>
+        <v>392.71600000000001</v>
       </c>
       <c r="G24">
-        <v>2791</v>
+        <v>240.25200000000001</v>
       </c>
       <c r="H24">
-        <v>47118</v>
+        <v>7433.9840000000004</v>
       </c>
       <c r="I24">
-        <v>1067</v>
+        <v>101.89100000000001</v>
       </c>
       <c r="J24">
-        <v>18165</v>
+        <v>2239.2629999999999</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4842</v>
+        <v>820.096</v>
       </c>
       <c r="O24">
-        <v>33133</v>
+        <v>4132.424</v>
       </c>
       <c r="P24">
-        <v>19616</v>
+        <v>2620.7179999999998</v>
       </c>
       <c r="Q24">
-        <v>-247</v>
+        <v>-13.551</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>42800</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>13985</v>
+        <v>3301.56</v>
       </c>
       <c r="U24">
-        <v>191</v>
+        <v>1.7689999999999999</v>
       </c>
       <c r="V24">
-        <v>1178</v>
+        <v>222.28700000000001</v>
       </c>
       <c r="W24">
-        <v>-296</v>
+        <v>-7.36</v>
       </c>
       <c r="X24">
-        <v>-751</v>
+        <v>-293.267</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>122.819</v>
       </c>
       <c r="AA24">
-        <v>196</v>
+        <v>152.21</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>152</v>
+        <v>76.323999999999998</v>
       </c>
       <c r="D25">
-        <v>4382</v>
+        <v>619.83699999999999</v>
       </c>
       <c r="E25">
-        <v>1957</v>
+        <v>215.114</v>
       </c>
       <c r="F25">
-        <v>2386</v>
+        <v>393.30099999999999</v>
       </c>
       <c r="G25">
-        <v>2728</v>
+        <v>268.54599999999999</v>
       </c>
       <c r="H25">
-        <v>46796</v>
+        <v>7405.6260000000002</v>
       </c>
       <c r="I25">
-        <v>1036</v>
+        <v>108.23</v>
       </c>
       <c r="J25">
-        <v>18184</v>
+        <v>2417.8069999999998</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4733</v>
+        <v>614.21</v>
       </c>
       <c r="O25">
-        <v>32904</v>
+        <v>4100.5870000000004</v>
       </c>
       <c r="P25">
-        <v>19718</v>
+        <v>2611.924</v>
       </c>
       <c r="Q25">
-        <v>-51</v>
+        <v>30.925000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>42500</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>13892</v>
+        <v>3305.0390000000002</v>
       </c>
       <c r="U25">
-        <v>140</v>
+        <v>32.694000000000003</v>
       </c>
       <c r="V25">
-        <v>911</v>
+        <v>216.191</v>
       </c>
       <c r="W25">
-        <v>-290</v>
+        <v>-7.3150000000000004</v>
       </c>
       <c r="X25">
-        <v>-229</v>
+        <v>-102.11799999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>152</v>
+        <v>76.323999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>42</v>
+        <v>72.233000000000004</v>
       </c>
       <c r="D26">
-        <v>4289</v>
+        <v>607.69500000000005</v>
       </c>
       <c r="E26">
-        <v>2003</v>
+        <v>227.346</v>
       </c>
       <c r="F26">
-        <v>2842</v>
+        <v>393.149</v>
       </c>
       <c r="G26">
-        <v>5162</v>
+        <v>290.11700000000002</v>
       </c>
       <c r="H26">
-        <v>47017</v>
+        <v>7441.0069999999996</v>
       </c>
       <c r="I26">
-        <v>1179</v>
+        <v>129.35</v>
       </c>
       <c r="J26">
-        <v>18185</v>
+        <v>2433.4450000000002</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>5349</v>
+        <v>617.56500000000005</v>
       </c>
       <c r="O26">
-        <v>33618</v>
+        <v>4240.83</v>
       </c>
       <c r="P26">
-        <v>19688</v>
+        <v>2611.4569999999999</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>-7.0259999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>40000</v>
+        <v>6400</v>
       </c>
       <c r="T26">
-        <v>13399</v>
+        <v>3200.1770000000001</v>
       </c>
       <c r="U26">
-        <v>222</v>
+        <v>25.667999999999999</v>
       </c>
       <c r="V26">
-        <v>1096</v>
+        <v>218.21100000000001</v>
       </c>
       <c r="W26">
-        <v>-291</v>
+        <v>-7.2270000000000003</v>
       </c>
       <c r="X26">
-        <v>-32</v>
+        <v>-122.943</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>42</v>
+        <v>72.233000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>163</v>
+        <v>77.87</v>
       </c>
       <c r="D27">
-        <v>4209</v>
+        <v>600.85500000000002</v>
       </c>
       <c r="E27">
-        <v>1854</v>
+        <v>211.53399999999999</v>
       </c>
       <c r="F27">
-        <v>2321</v>
+        <v>387.32400000000001</v>
       </c>
       <c r="G27">
-        <v>4968</v>
+        <v>1012.8630000000001</v>
       </c>
       <c r="H27">
-        <v>46602</v>
+        <v>8090.1109999999999</v>
       </c>
       <c r="I27">
-        <v>994</v>
+        <v>126.765</v>
       </c>
       <c r="J27">
-        <v>18180</v>
+        <v>2916.511</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-31</v>
+        <v>-64.954999999999998</v>
       </c>
       <c r="N27">
-        <v>5096</v>
+        <v>770.096</v>
       </c>
       <c r="O27">
-        <v>33296</v>
+        <v>4962.8810000000003</v>
       </c>
       <c r="P27">
-        <v>19679</v>
+        <v>3277.26</v>
       </c>
       <c r="Q27">
-        <v>-8</v>
+        <v>738.08100000000002</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>13306</v>
+        <v>3127.23</v>
       </c>
       <c r="U27">
-        <v>214</v>
+        <v>763.74900000000002</v>
       </c>
       <c r="V27">
-        <v>1057</v>
+        <v>258.70999999999998</v>
       </c>
       <c r="W27">
-        <v>-296</v>
+        <v>-7.3090000000000002</v>
       </c>
       <c r="X27">
-        <v>-333</v>
+        <v>529.88599999999997</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>163</v>
+        <v>77.87</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>112.265</v>
       </c>
       <c r="D28">
-        <v>4090</v>
+        <v>689.99099999999999</v>
       </c>
       <c r="E28">
-        <v>1868</v>
+        <v>214.81</v>
       </c>
       <c r="F28">
-        <v>2200</v>
+        <v>463.60300000000001</v>
       </c>
       <c r="G28">
-        <v>2908</v>
+        <v>294.40600000000001</v>
       </c>
       <c r="H28">
-        <v>50925</v>
+        <v>8273.5360000000001</v>
       </c>
       <c r="I28">
-        <v>944</v>
+        <v>135.185</v>
       </c>
       <c r="J28">
-        <v>24881</v>
+        <v>2735.0729999999999</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3243</v>
+        <v>960.274</v>
       </c>
       <c r="O28">
-        <v>37839</v>
+        <v>5136.5020000000004</v>
       </c>
       <c r="P28">
-        <v>25077</v>
+        <v>3246.38</v>
       </c>
       <c r="Q28">
-        <v>6141</v>
+        <v>-720.22400000000005</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>39800</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>13086</v>
+        <v>3137.0340000000001</v>
       </c>
       <c r="U28">
-        <v>342</v>
+        <v>43.524999999999999</v>
       </c>
       <c r="V28">
-        <v>685</v>
+        <v>299.315</v>
       </c>
       <c r="W28">
-        <v>-294</v>
+        <v>-7.1710000000000003</v>
       </c>
       <c r="X28">
-        <v>4818</v>
+        <v>-657.29700000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>17</v>
+        <v>112.265</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>92</v>
+        <v>113.202</v>
       </c>
       <c r="D29">
-        <v>4034</v>
+        <v>708.83299999999997</v>
       </c>
       <c r="E29">
-        <v>1888</v>
+        <v>233.96</v>
       </c>
       <c r="F29">
-        <v>2107</v>
+        <v>462.40300000000002</v>
       </c>
       <c r="G29">
-        <v>2694</v>
+        <v>327.88</v>
       </c>
       <c r="H29">
-        <v>50536</v>
+        <v>8232.65</v>
       </c>
       <c r="I29">
-        <v>939</v>
+        <v>97.914000000000001</v>
       </c>
       <c r="J29">
-        <v>24854</v>
+        <v>2747.576</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3266</v>
+        <v>679.91600000000005</v>
       </c>
       <c r="O29">
-        <v>37576</v>
+        <v>4868.2290000000003</v>
       </c>
       <c r="P29">
-        <v>24978</v>
+        <v>3002.471</v>
       </c>
       <c r="Q29">
-        <v>-193</v>
+        <v>15.189</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>39500</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>12960</v>
+        <v>3364.4209999999998</v>
       </c>
       <c r="U29">
-        <v>160</v>
+        <v>58.713999999999999</v>
       </c>
       <c r="V29">
-        <v>958</v>
+        <v>231.40799999999999</v>
       </c>
       <c r="W29">
-        <v>-291</v>
+        <v>-7.3609999999999998</v>
       </c>
       <c r="X29">
-        <v>-395</v>
+        <v>-146.54400000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>92</v>
+        <v>113.202</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1117</v>
+        <v>115.033</v>
       </c>
       <c r="D30">
-        <v>5323</v>
+        <v>656.56200000000001</v>
       </c>
       <c r="E30">
-        <v>2517</v>
+        <v>223.02699999999999</v>
       </c>
       <c r="F30">
-        <v>2825</v>
+        <v>422.13600000000002</v>
       </c>
       <c r="G30">
-        <v>4194</v>
+        <v>292.399</v>
       </c>
       <c r="H30">
-        <v>75611</v>
+        <v>8184.5529999999999</v>
       </c>
       <c r="I30">
-        <v>1555</v>
+        <v>120.381</v>
       </c>
       <c r="J30">
-        <v>37283</v>
+        <v>2734.357</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,161 +3216,161 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>4857</v>
+        <v>736.53499999999997</v>
       </c>
       <c r="O30">
-        <v>52120</v>
+        <v>4775.348</v>
       </c>
       <c r="P30">
-        <v>37726</v>
+        <v>3014.2550000000001</v>
       </c>
       <c r="Q30">
-        <v>-5577</v>
+        <v>-24.312000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>51000</v>
+        <v>6600</v>
       </c>
       <c r="T30">
-        <v>23491</v>
+        <v>3409.2049999999999</v>
       </c>
       <c r="U30">
-        <v>551</v>
+        <v>34.402000000000001</v>
       </c>
       <c r="V30">
-        <v>1178</v>
+        <v>240.553</v>
       </c>
       <c r="W30">
-        <v>-572</v>
+        <v>-7.2110000000000003</v>
       </c>
       <c r="X30">
-        <v>1266</v>
+        <v>-128.10900000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>5.2060000000000004</v>
       </c>
       <c r="AA30">
-        <v>1117</v>
+        <v>115.033</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>115</v>
+        <v>88.76</v>
       </c>
       <c r="D31">
-        <v>5945</v>
+        <v>648.61400000000003</v>
       </c>
       <c r="E31">
-        <v>2432</v>
+        <v>218.50700000000001</v>
       </c>
       <c r="F31">
-        <v>3142</v>
+        <v>410.80200000000002</v>
       </c>
       <c r="G31">
-        <v>4183</v>
+        <v>292.23700000000002</v>
       </c>
       <c r="H31">
-        <v>74793</v>
+        <v>8118.1270000000004</v>
       </c>
       <c r="I31">
-        <v>1508</v>
+        <v>108.30800000000001</v>
       </c>
       <c r="J31">
-        <v>36940</v>
+        <v>2881.31</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-473</v>
+        <v>-245.05799999999999</v>
       </c>
       <c r="N31">
-        <v>4767</v>
+        <v>526.03300000000002</v>
       </c>
       <c r="O31">
-        <v>51350</v>
+        <v>4718.143</v>
       </c>
       <c r="P31">
-        <v>37377</v>
+        <v>2966.7539999999999</v>
       </c>
       <c r="Q31">
-        <v>-50</v>
+        <v>3.137</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>23443</v>
+        <v>3399.9839999999999</v>
       </c>
       <c r="U31">
-        <v>501</v>
+        <v>37.539000000000001</v>
       </c>
       <c r="V31">
-        <v>1667</v>
+        <v>230.21</v>
       </c>
       <c r="W31">
-        <v>-580</v>
+        <v>-7.2610000000000001</v>
       </c>
       <c r="X31">
-        <v>-949</v>
+        <v>-150.822</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>4.2089999999999996</v>
       </c>
       <c r="AA31">
-        <v>115</v>
+        <v>88.76</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>292</v>
+        <v>92.167000000000002</v>
       </c>
       <c r="D32">
-        <v>5902</v>
+        <v>658.10599999999999</v>
       </c>
       <c r="E32">
-        <v>2471</v>
+        <v>232.501</v>
       </c>
       <c r="F32">
-        <v>3172</v>
+        <v>418.48</v>
       </c>
       <c r="G32">
-        <v>4451</v>
+        <v>331.31599999999997</v>
       </c>
       <c r="H32">
-        <v>74346</v>
+        <v>8168.0640000000003</v>
       </c>
       <c r="I32">
-        <v>1360</v>
+        <v>114.762</v>
       </c>
       <c r="J32">
-        <v>36878</v>
+        <v>3016.2429999999999</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>4521</v>
+        <v>490.11799999999999</v>
       </c>
       <c r="O32">
-        <v>51357</v>
+        <v>4793.027</v>
       </c>
       <c r="P32">
-        <v>37315</v>
+        <v>3061.587</v>
       </c>
       <c r="Q32">
-        <v>195</v>
+        <v>26.361000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>47000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>22989</v>
+        <v>3375.0369999999998</v>
       </c>
       <c r="U32">
-        <v>700</v>
+        <v>63.9</v>
       </c>
       <c r="V32">
-        <v>1582</v>
+        <v>196.77699999999999</v>
       </c>
       <c r="W32">
-        <v>-576</v>
+        <v>-7.085</v>
       </c>
       <c r="X32">
-        <v>-643</v>
+        <v>-20.588999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>292</v>
+        <v>92.167000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>272</v>
+        <v>84.733000000000004</v>
       </c>
       <c r="D33">
-        <v>5818</v>
+        <v>650.07299999999998</v>
       </c>
       <c r="E33">
-        <v>2824</v>
+        <v>214.012</v>
       </c>
       <c r="F33">
-        <v>3146</v>
+        <v>407.83</v>
       </c>
       <c r="G33">
-        <v>4114</v>
+        <v>508.78300000000002</v>
       </c>
       <c r="H33">
-        <v>73371</v>
+        <v>8272.902</v>
       </c>
       <c r="I33">
-        <v>1387</v>
+        <v>98.736000000000004</v>
       </c>
       <c r="J33">
-        <v>35749</v>
+        <v>3299.2660000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>5286</v>
+        <v>474.71300000000002</v>
       </c>
       <c r="O33">
-        <v>50568</v>
+        <v>5076.6620000000003</v>
       </c>
       <c r="P33">
-        <v>36527</v>
+        <v>3344.623</v>
       </c>
       <c r="Q33">
-        <v>-312</v>
+        <v>195.05699999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>46000</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>22803</v>
+        <v>3196.24</v>
       </c>
       <c r="U33">
-        <v>390</v>
+        <v>258.95699999999999</v>
       </c>
       <c r="V33">
-        <v>1787</v>
+        <v>240.24600000000001</v>
       </c>
       <c r="W33">
-        <v>-579</v>
+        <v>-71.164299999999997</v>
       </c>
       <c r="X33">
-        <v>-1415</v>
+        <v>15.513999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-4.2089999999999996</v>
       </c>
       <c r="AA33">
-        <v>272</v>
+        <v>84.733000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-2412</v>
+        <v>100.072</v>
       </c>
       <c r="D34">
-        <v>5778</v>
+        <v>642.95399999999995</v>
       </c>
       <c r="E34">
-        <v>2429</v>
+        <v>216.01599999999999</v>
       </c>
       <c r="F34">
-        <v>3121</v>
+        <v>407.16199999999998</v>
       </c>
       <c r="G34">
-        <v>3820</v>
+        <v>555.40700000000004</v>
       </c>
       <c r="H34">
-        <v>70256</v>
+        <v>8254.1949999999997</v>
       </c>
       <c r="I34">
-        <v>1933</v>
+        <v>135.08600000000001</v>
       </c>
       <c r="J34">
-        <v>35213</v>
+        <v>3294.1190000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5531</v>
+        <v>458.39</v>
       </c>
       <c r="O34">
-        <v>50428</v>
+        <v>5086.3869999999997</v>
       </c>
       <c r="P34">
-        <v>36061</v>
+        <v>3314.5259999999998</v>
       </c>
       <c r="Q34">
-        <v>98</v>
+        <v>-15.63</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>45000</v>
+        <v>6500</v>
       </c>
       <c r="T34">
-        <v>19828</v>
+        <v>3167.808</v>
       </c>
       <c r="U34">
-        <v>488</v>
+        <v>243.327</v>
       </c>
       <c r="V34">
-        <v>1996</v>
+        <v>186.06700000000001</v>
       </c>
       <c r="W34">
-        <v>-577</v>
+        <v>-70.532219999999995</v>
       </c>
       <c r="X34">
-        <v>-1016</v>
+        <v>-99.483000000000004</v>
       </c>
       <c r="Y34">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>-2412</v>
+        <v>100.072</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-6165</v>
+        <v>67.153999999999996</v>
       </c>
       <c r="D35">
-        <v>5427</v>
+        <v>636.38499999999999</v>
       </c>
       <c r="E35">
-        <v>2405</v>
+        <v>194.19399999999999</v>
       </c>
       <c r="F35">
-        <v>3127</v>
+        <v>401.75400000000002</v>
       </c>
       <c r="G35">
-        <v>3820</v>
+        <v>320.63</v>
       </c>
       <c r="H35">
-        <v>64788</v>
+        <v>7933.8130000000001</v>
       </c>
       <c r="I35">
-        <v>1481</v>
+        <v>125.218</v>
       </c>
       <c r="J35">
-        <v>34668</v>
+        <v>3002.402</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-153</v>
+        <v>-291.976</v>
       </c>
       <c r="N35">
-        <v>5373</v>
+        <v>414.86200000000002</v>
       </c>
       <c r="O35">
-        <v>51245</v>
+        <v>4758.6040000000003</v>
       </c>
       <c r="P35">
-        <v>37552</v>
+        <v>3022.55</v>
       </c>
       <c r="Q35">
-        <v>-44</v>
+        <v>-182.09700000000001</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>13543</v>
+        <v>3175.2089999999998</v>
       </c>
       <c r="U35">
-        <v>441</v>
+        <v>61.23</v>
       </c>
       <c r="V35">
-        <v>1182</v>
+        <v>230.167</v>
       </c>
       <c r="W35">
-        <v>-285</v>
+        <v>-70.373000000000005</v>
       </c>
       <c r="X35">
-        <v>-320</v>
+        <v>-366.89600000000002</v>
       </c>
       <c r="Y35">
-        <v>1691</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>-6165</v>
+        <v>67.153999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>371</v>
+        <v>69.03</v>
       </c>
       <c r="D36">
-        <v>5375</v>
+        <v>634.46900000000005</v>
       </c>
       <c r="E36">
-        <v>2503</v>
+        <v>199.1</v>
       </c>
       <c r="F36">
-        <v>3132</v>
+        <v>398.73700000000002</v>
       </c>
       <c r="G36">
-        <v>3878</v>
+        <v>320.303</v>
       </c>
       <c r="H36">
-        <v>64508</v>
+        <v>7886.7</v>
       </c>
       <c r="I36">
-        <v>1634</v>
+        <v>139.84700000000001</v>
       </c>
       <c r="J36">
-        <v>33005</v>
+        <v>2899.9360000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6495</v>
+        <v>447.41699999999997</v>
       </c>
       <c r="O36">
-        <v>50816</v>
+        <v>4700.3779999999997</v>
       </c>
       <c r="P36">
-        <v>36743</v>
+        <v>2919.86</v>
       </c>
       <c r="Q36">
-        <v>-34</v>
+        <v>-2.0859999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>13692</v>
+        <v>3186.3220000000001</v>
       </c>
       <c r="U36">
-        <v>410</v>
+        <v>59.143999999999998</v>
       </c>
       <c r="V36">
-        <v>1701</v>
+        <v>252.03800000000001</v>
       </c>
       <c r="W36">
-        <v>-269</v>
+        <v>-70.731999999999999</v>
       </c>
       <c r="X36">
-        <v>-924</v>
+        <v>-168.90100000000001</v>
       </c>
       <c r="Y36">
-        <v>1655</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>371</v>
+        <v>69.03</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>302</v>
+        <v>280.84800000000001</v>
       </c>
       <c r="D37">
-        <v>5350</v>
+        <v>1874.325</v>
       </c>
       <c r="E37">
-        <v>2341</v>
+        <v>670.73199999999997</v>
       </c>
       <c r="F37">
-        <v>3016</v>
+        <v>1189.46</v>
       </c>
       <c r="G37">
-        <v>4589</v>
+        <v>1458.258</v>
       </c>
       <c r="H37">
-        <v>64728</v>
+        <v>22957.062999999998</v>
       </c>
       <c r="I37">
-        <v>1712</v>
+        <v>331.69499999999999</v>
       </c>
       <c r="J37">
-        <v>33199</v>
+        <v>7454.5150000000003</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>6589</v>
+        <v>2149.277</v>
       </c>
       <c r="O37">
-        <v>51054</v>
+        <v>13593.034</v>
       </c>
       <c r="P37">
-        <v>36895</v>
+        <v>8223.9969999999994</v>
       </c>
       <c r="Q37">
-        <v>991</v>
+        <v>472.04500000000002</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>13674</v>
+        <v>9364.0290000000005</v>
       </c>
       <c r="U37">
-        <v>1404</v>
+        <v>531.18899999999996</v>
       </c>
       <c r="V37">
-        <v>1888</v>
+        <v>479.55599999999998</v>
       </c>
       <c r="W37">
-        <v>-275</v>
+        <v>-209.85400000000001</v>
       </c>
       <c r="X37">
-        <v>57</v>
+        <v>199.09399999999999</v>
       </c>
       <c r="Y37">
-        <v>1533</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>302</v>
+        <v>280.84800000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>223</v>
+        <v>230.179</v>
       </c>
       <c r="D38">
-        <v>5306</v>
+        <v>1829.06</v>
       </c>
       <c r="E38">
-        <v>2281</v>
+        <v>685.58900000000006</v>
       </c>
       <c r="F38">
-        <v>3049</v>
+        <v>1237.905</v>
       </c>
       <c r="G38">
-        <v>4768</v>
+        <v>1123.5909999999999</v>
       </c>
       <c r="H38">
-        <v>64742</v>
+        <v>22562.728999999999</v>
       </c>
       <c r="I38">
-        <v>1724</v>
+        <v>394.68700000000001</v>
       </c>
       <c r="J38">
-        <v>32209</v>
+        <v>7253.6530000000002</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>7258</v>
+        <v>1707.1949999999999</v>
       </c>
       <c r="O38">
-        <v>51272</v>
+        <v>13095.93</v>
       </c>
       <c r="P38">
-        <v>36452</v>
+        <v>7753.7179999999998</v>
       </c>
       <c r="Q38">
-        <v>286</v>
+        <v>-369.38200000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>42500</v>
+        <v>20200</v>
       </c>
       <c r="T38">
-        <v>13470</v>
+        <v>9466.7990000000009</v>
       </c>
       <c r="U38">
-        <v>1690</v>
+        <v>161.80699999999999</v>
       </c>
       <c r="V38">
-        <v>1909</v>
+        <v>611.95399999999995</v>
       </c>
       <c r="W38">
-        <v>-271</v>
+        <v>-209.738</v>
       </c>
       <c r="X38">
-        <v>-724</v>
+        <v>-639.68799999999999</v>
       </c>
       <c r="Y38">
-        <v>1527</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>223</v>
+        <v>230.179</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>314</v>
+        <v>252.601</v>
       </c>
       <c r="D39">
-        <v>5228</v>
+        <v>1800.4259999999999</v>
       </c>
       <c r="E39">
-        <v>2208</v>
+        <v>671</v>
       </c>
       <c r="F39">
-        <v>2993</v>
+        <v>1193.7449999999999</v>
       </c>
       <c r="G39">
-        <v>4690</v>
+        <v>1041</v>
       </c>
       <c r="H39">
-        <v>64056</v>
+        <v>22321</v>
       </c>
       <c r="I39">
-        <v>1581</v>
+        <v>335</v>
       </c>
       <c r="J39">
-        <v>33276</v>
+        <v>7221</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-2488</v>
+        <v>-32.628999999999998</v>
       </c>
       <c r="N39">
-        <v>5703</v>
+        <v>1761</v>
       </c>
       <c r="O39">
-        <v>50765</v>
+        <v>12820</v>
       </c>
       <c r="P39">
-        <v>36342</v>
+        <v>7721</v>
       </c>
       <c r="Q39">
-        <v>-126</v>
+        <v>44.683</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>13291</v>
+        <v>9501</v>
       </c>
       <c r="U39">
-        <v>1564</v>
+        <v>206</v>
       </c>
       <c r="V39">
-        <v>1299</v>
+        <v>461.46300000000002</v>
       </c>
       <c r="W39">
-        <v>-291</v>
+        <v>-218.05199999999999</v>
       </c>
       <c r="X39">
-        <v>-486</v>
+        <v>-248.29400000000001</v>
       </c>
       <c r="Y39">
-        <v>1521</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>314</v>
+        <v>252.601</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>377</v>
+        <v>238.399</v>
       </c>
       <c r="D40">
-        <v>5192</v>
+        <v>1771.5740000000001</v>
       </c>
       <c r="E40">
-        <v>2215</v>
+        <v>702.03</v>
       </c>
       <c r="F40">
-        <v>2960</v>
+        <v>1131.2550000000001</v>
       </c>
       <c r="G40">
-        <v>4858</v>
+        <v>1083.6500000000001</v>
       </c>
       <c r="H40">
-        <v>64171</v>
+        <v>22199.583999999999</v>
       </c>
       <c r="I40">
-        <v>1448</v>
+        <v>299.06599999999997</v>
       </c>
       <c r="J40">
-        <v>31212</v>
+        <v>7178.6459999999997</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>7472</v>
+        <v>1629.586</v>
       </c>
       <c r="O40">
-        <v>50709</v>
+        <v>12648.487999999999</v>
       </c>
       <c r="P40">
-        <v>34773</v>
+        <v>7675.2049999999999</v>
       </c>
       <c r="Q40">
-        <v>193</v>
+        <v>-20.683</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>13462</v>
+        <v>9551.0959999999995</v>
       </c>
       <c r="U40">
-        <v>1763</v>
+        <v>186.357</v>
       </c>
       <c r="V40">
-        <v>1749</v>
+        <v>419.53699999999998</v>
       </c>
       <c r="W40">
-        <v>-271</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-597</v>
+        <v>-248.70599999999999</v>
       </c>
       <c r="Y40">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>377</v>
+        <v>238.399</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>366</v>
+        <v>232</v>
       </c>
       <c r="D41">
-        <v>5167</v>
+        <v>1748</v>
       </c>
       <c r="E41">
-        <v>2178</v>
+        <v>749.65300000000002</v>
       </c>
       <c r="F41">
-        <v>2931</v>
+        <v>1117</v>
       </c>
       <c r="G41">
-        <v>3504</v>
+        <v>1227.107</v>
       </c>
       <c r="H41">
-        <v>62599</v>
+        <v>22220.21</v>
       </c>
       <c r="I41">
-        <v>1364</v>
+        <v>292.67500000000001</v>
       </c>
       <c r="J41">
-        <v>30813</v>
+        <v>7061.7439999999997</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5879</v>
+        <v>1649.7280000000001</v>
       </c>
       <c r="O41">
-        <v>48910</v>
+        <v>12614.356</v>
       </c>
       <c r="P41">
-        <v>32993</v>
+        <v>7558.2960000000003</v>
       </c>
       <c r="Q41">
-        <v>-1237</v>
+        <v>57</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>13689</v>
+        <v>9605.8539999999994</v>
       </c>
       <c r="U41">
-        <v>526</v>
+        <v>243.06100000000001</v>
       </c>
       <c r="V41">
-        <v>1794</v>
+        <v>600</v>
       </c>
       <c r="W41">
-        <v>-275</v>
+        <v>-221</v>
       </c>
       <c r="X41">
-        <v>-2089</v>
+        <v>-305</v>
       </c>
       <c r="Y41">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>366</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>225</v>
+      </c>
+      <c r="D42">
+        <v>1722</v>
+      </c>
+      <c r="E42">
+        <v>713</v>
+      </c>
+      <c r="F42">
+        <v>1279</v>
+      </c>
+      <c r="G42">
+        <v>1143</v>
+      </c>
+      <c r="H42">
+        <v>22038</v>
+      </c>
+      <c r="I42">
+        <v>300</v>
+      </c>
+      <c r="J42">
+        <v>7316</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1011</v>
+      </c>
+      <c r="O42">
+        <v>12391</v>
+      </c>
+      <c r="P42">
+        <v>7328</v>
+      </c>
+      <c r="Q42">
+        <v>-70</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>20300</v>
+      </c>
+      <c r="T42">
+        <v>9647</v>
+      </c>
+      <c r="U42">
+        <v>173</v>
+      </c>
+      <c r="V42">
+        <v>564</v>
+      </c>
+      <c r="W42">
+        <v>-221</v>
+      </c>
+      <c r="X42">
+        <v>-373</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>211</v>
+      </c>
+      <c r="D43">
+        <v>1696</v>
+      </c>
+      <c r="E43">
+        <v>667.84199999999998</v>
+      </c>
+      <c r="F43">
+        <v>1084</v>
+      </c>
+      <c r="G43">
+        <v>1140.7360000000001</v>
+      </c>
+      <c r="H43">
+        <v>21901.457999999999</v>
+      </c>
+      <c r="I43">
+        <v>298.68700000000001</v>
+      </c>
+      <c r="J43">
+        <v>7168.2510000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-148</v>
+      </c>
+      <c r="N43">
+        <v>1073.0070000000001</v>
+      </c>
+      <c r="O43">
+        <v>12242.851000000001</v>
+      </c>
+      <c r="P43">
+        <v>7179.79</v>
+      </c>
+      <c r="Q43">
+        <v>97</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>9658.607</v>
+      </c>
+      <c r="U43">
+        <v>269.65899999999999</v>
+      </c>
+      <c r="V43">
+        <v>670</v>
+      </c>
+      <c r="W43">
+        <v>-222</v>
+      </c>
+      <c r="X43">
+        <v>-365</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>4406</v>
+      </c>
+      <c r="E44">
+        <v>1830</v>
+      </c>
+      <c r="F44">
+        <v>2651</v>
+      </c>
+      <c r="G44">
+        <v>5007</v>
+      </c>
+      <c r="H44">
+        <v>54842</v>
+      </c>
+      <c r="I44">
+        <v>1256</v>
+      </c>
+      <c r="J44">
+        <v>19734</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>5064</v>
+      </c>
+      <c r="O44">
+        <v>33201</v>
+      </c>
+      <c r="P44">
+        <v>21344</v>
+      </c>
+      <c r="Q44">
+        <v>2276</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>21641</v>
+      </c>
+      <c r="U44">
+        <v>2546</v>
+      </c>
+      <c r="V44">
+        <v>1348</v>
+      </c>
+      <c r="W44">
+        <v>-435</v>
+      </c>
+      <c r="X44">
+        <v>1082</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>138</v>
+      </c>
+      <c r="D45">
+        <v>4596</v>
+      </c>
+      <c r="E45">
+        <v>1998</v>
+      </c>
+      <c r="F45">
+        <v>2663</v>
+      </c>
+      <c r="G45">
+        <v>3808</v>
+      </c>
+      <c r="H45">
+        <v>56735</v>
+      </c>
+      <c r="I45">
+        <v>1360</v>
+      </c>
+      <c r="J45">
+        <v>21142</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4737</v>
+      </c>
+      <c r="O45">
+        <v>34759</v>
+      </c>
+      <c r="P45">
+        <v>22176</v>
+      </c>
+      <c r="Q45">
+        <v>-1423</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>49250</v>
+      </c>
+      <c r="T45">
+        <v>21976</v>
+      </c>
+      <c r="U45">
+        <v>1123</v>
+      </c>
+      <c r="V45">
+        <v>1455</v>
+      </c>
+      <c r="W45">
+        <v>-448</v>
+      </c>
+      <c r="X45">
+        <v>-476</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>109</v>
+      </c>
+      <c r="D46">
+        <v>4653</v>
+      </c>
+      <c r="E46">
+        <v>1919</v>
+      </c>
+      <c r="F46">
+        <v>3096</v>
+      </c>
+      <c r="G46">
+        <v>3517</v>
+      </c>
+      <c r="H46">
+        <v>56044</v>
+      </c>
+      <c r="I46">
+        <v>1400</v>
+      </c>
+      <c r="J46">
+        <v>21356</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4017</v>
+      </c>
+      <c r="O46">
+        <v>35217</v>
+      </c>
+      <c r="P46">
+        <v>21836</v>
+      </c>
+      <c r="Q46">
+        <v>-995</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>49200</v>
+      </c>
+      <c r="T46">
+        <v>20827</v>
+      </c>
+      <c r="U46">
+        <v>128</v>
+      </c>
+      <c r="V46">
+        <v>728</v>
+      </c>
+      <c r="W46">
+        <v>-451</v>
+      </c>
+      <c r="X46">
+        <v>-818</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+      <c r="D47">
+        <v>4610</v>
+      </c>
+      <c r="E47">
+        <v>1879</v>
+      </c>
+      <c r="F47">
+        <v>2733</v>
+      </c>
+      <c r="G47">
+        <v>4882</v>
+      </c>
+      <c r="H47">
+        <v>56842</v>
+      </c>
+      <c r="I47">
+        <v>1026</v>
+      </c>
+      <c r="J47">
+        <v>20667</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1126</v>
+      </c>
+      <c r="N47">
+        <v>5643</v>
+      </c>
+      <c r="O47">
+        <v>36204</v>
+      </c>
+      <c r="P47">
+        <v>22867</v>
+      </c>
+      <c r="Q47">
+        <v>1402</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>47900</v>
+      </c>
+      <c r="T47">
+        <v>20638</v>
+      </c>
+      <c r="U47">
+        <v>1530</v>
+      </c>
+      <c r="V47">
+        <v>1583</v>
+      </c>
+      <c r="W47">
+        <v>-452</v>
+      </c>
+      <c r="X47">
+        <v>481</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>74</v>
+      </c>
+      <c r="D48">
+        <v>4612</v>
+      </c>
+      <c r="E48">
+        <v>1920</v>
+      </c>
+      <c r="F48">
+        <v>2700</v>
+      </c>
+      <c r="G48">
+        <v>3847</v>
+      </c>
+      <c r="H48">
+        <v>55090</v>
+      </c>
+      <c r="I48">
+        <v>1134</v>
+      </c>
+      <c r="J48">
+        <v>19682</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>5207</v>
+      </c>
+      <c r="O48">
+        <v>34779</v>
+      </c>
+      <c r="P48">
+        <v>21585</v>
+      </c>
+      <c r="Q48">
+        <v>-1249</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>47100</v>
+      </c>
+      <c r="T48">
+        <v>20311</v>
+      </c>
+      <c r="U48">
+        <v>281</v>
+      </c>
+      <c r="V48">
+        <v>1216</v>
+      </c>
+      <c r="W48">
+        <v>-453</v>
+      </c>
+      <c r="X48">
+        <v>-1954</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>270</v>
+      </c>
+      <c r="D49">
+        <v>4571</v>
+      </c>
+      <c r="E49">
+        <v>1971</v>
+      </c>
+      <c r="F49">
+        <v>2628</v>
+      </c>
+      <c r="G49">
+        <v>3833</v>
+      </c>
+      <c r="H49">
+        <v>54632</v>
+      </c>
+      <c r="I49">
+        <v>1320</v>
+      </c>
+      <c r="J49">
+        <v>19508</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>4931</v>
+      </c>
+      <c r="O49">
+        <v>34435</v>
+      </c>
+      <c r="P49">
+        <v>20706</v>
+      </c>
+      <c r="Q49">
+        <v>-87</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>46500</v>
+      </c>
+      <c r="T49">
+        <v>20197</v>
+      </c>
+      <c r="U49">
+        <v>194</v>
+      </c>
+      <c r="V49">
+        <v>1887</v>
+      </c>
+      <c r="W49">
+        <v>-452</v>
+      </c>
+      <c r="X49">
+        <v>-1286</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>233</v>
+      </c>
+      <c r="D50">
+        <v>4583</v>
+      </c>
+      <c r="E50">
+        <v>1898</v>
+      </c>
+      <c r="F50">
+        <v>3143</v>
+      </c>
+      <c r="G50">
+        <v>3638</v>
+      </c>
+      <c r="H50">
+        <v>53940</v>
+      </c>
+      <c r="I50">
+        <v>1207</v>
+      </c>
+      <c r="J50">
+        <v>19400</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4595</v>
+      </c>
+      <c r="O50">
+        <v>34651</v>
+      </c>
+      <c r="P50">
+        <v>20605</v>
+      </c>
+      <c r="Q50">
+        <v>17</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>47000</v>
+      </c>
+      <c r="T50">
+        <v>19289</v>
+      </c>
+      <c r="U50">
+        <v>211</v>
+      </c>
+      <c r="V50">
+        <v>1379</v>
+      </c>
+      <c r="W50">
+        <v>-454</v>
+      </c>
+      <c r="X50">
+        <v>-536</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>298</v>
+      </c>
+      <c r="D51">
+        <v>4513</v>
+      </c>
+      <c r="E51">
+        <v>1924</v>
+      </c>
+      <c r="F51">
+        <v>2717</v>
+      </c>
+      <c r="G51">
+        <v>3875</v>
+      </c>
+      <c r="H51">
+        <v>53729</v>
+      </c>
+      <c r="I51">
+        <v>1094</v>
+      </c>
+      <c r="J51">
+        <v>19595</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-801</v>
+      </c>
+      <c r="N51">
+        <v>4583</v>
+      </c>
+      <c r="O51">
+        <v>34873</v>
+      </c>
+      <c r="P51">
+        <v>20788</v>
+      </c>
+      <c r="Q51">
+        <v>265</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>45800</v>
+      </c>
+      <c r="T51">
+        <v>18856</v>
+      </c>
+      <c r="U51">
+        <v>476</v>
+      </c>
+      <c r="V51">
+        <v>1387</v>
+      </c>
+      <c r="W51">
+        <v>-341</v>
+      </c>
+      <c r="X51">
+        <v>-538</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>269</v>
+      </c>
+      <c r="D52">
+        <v>4525</v>
+      </c>
+      <c r="E52">
+        <v>1900</v>
+      </c>
+      <c r="F52">
+        <v>2652</v>
+      </c>
+      <c r="G52">
+        <v>3648</v>
+      </c>
+      <c r="H52">
+        <v>53254</v>
+      </c>
+      <c r="I52">
+        <v>1285</v>
+      </c>
+      <c r="J52">
+        <v>20283</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3748</v>
+      </c>
+      <c r="O52">
+        <v>34854</v>
+      </c>
+      <c r="P52">
+        <v>20585</v>
+      </c>
+      <c r="Q52">
+        <v>-262</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>46900</v>
+      </c>
+      <c r="T52">
+        <v>18400</v>
+      </c>
+      <c r="U52">
+        <v>214</v>
+      </c>
+      <c r="V52">
+        <v>1469</v>
+      </c>
+      <c r="W52">
+        <v>-320</v>
+      </c>
+      <c r="X52">
+        <v>-1003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-1045</v>
+      </c>
+      <c r="D53">
+        <v>4515</v>
+      </c>
+      <c r="E53">
+        <v>1911</v>
+      </c>
+      <c r="F53">
+        <v>2597</v>
+      </c>
+      <c r="G53">
+        <v>3812</v>
+      </c>
+      <c r="H53">
+        <v>51984</v>
+      </c>
+      <c r="I53">
+        <v>1158</v>
+      </c>
+      <c r="J53">
+        <v>20391</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3978</v>
+      </c>
+      <c r="O53">
+        <v>35270</v>
+      </c>
+      <c r="P53">
+        <v>20582</v>
+      </c>
+      <c r="Q53">
+        <v>52</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>46700</v>
+      </c>
+      <c r="T53">
+        <v>16714</v>
+      </c>
+      <c r="U53">
+        <v>266</v>
+      </c>
+      <c r="V53">
+        <v>1552</v>
+      </c>
+      <c r="W53">
+        <v>-325</v>
+      </c>
+      <c r="X53">
+        <v>-695</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>-1045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>239</v>
+      </c>
+      <c r="D54">
+        <v>4542</v>
+      </c>
+      <c r="E54">
+        <v>1959</v>
+      </c>
+      <c r="F54">
+        <v>3092</v>
+      </c>
+      <c r="G54">
+        <v>3907</v>
+      </c>
+      <c r="H54">
+        <v>51787</v>
+      </c>
+      <c r="I54">
+        <v>1111</v>
+      </c>
+      <c r="J54">
+        <v>20181</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4409</v>
+      </c>
+      <c r="O54">
+        <v>34596</v>
+      </c>
+      <c r="P54">
+        <v>20966</v>
+      </c>
+      <c r="Q54">
+        <v>-98</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>46600</v>
+      </c>
+      <c r="T54">
+        <v>17191</v>
+      </c>
+      <c r="U54">
+        <v>168</v>
+      </c>
+      <c r="V54">
+        <v>1151</v>
+      </c>
+      <c r="W54">
+        <v>-315</v>
+      </c>
+      <c r="X54">
+        <v>-218</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>203</v>
+      </c>
+      <c r="D55">
+        <v>4538</v>
+      </c>
+      <c r="E55">
+        <v>1887</v>
+      </c>
+      <c r="F55">
+        <v>2603</v>
+      </c>
+      <c r="G55">
+        <v>3748</v>
+      </c>
+      <c r="H55">
+        <v>51166</v>
+      </c>
+      <c r="I55">
+        <v>1183</v>
+      </c>
+      <c r="J55">
+        <v>19814</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-47</v>
+      </c>
+      <c r="N55">
+        <v>4621</v>
+      </c>
+      <c r="O55">
+        <v>34368</v>
+      </c>
+      <c r="P55">
+        <v>20940</v>
+      </c>
+      <c r="Q55">
+        <v>51</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>47000</v>
+      </c>
+      <c r="T55">
+        <v>16798</v>
+      </c>
+      <c r="U55">
+        <v>219</v>
+      </c>
+      <c r="V55">
+        <v>1380</v>
+      </c>
+      <c r="W55">
+        <v>-309</v>
+      </c>
+      <c r="X55">
+        <v>-647</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>193</v>
+      </c>
+      <c r="D56">
+        <v>4541</v>
+      </c>
+      <c r="E56">
+        <v>1986</v>
+      </c>
+      <c r="F56">
+        <v>2579</v>
+      </c>
+      <c r="G56">
+        <v>3598</v>
+      </c>
+      <c r="H56">
+        <v>50614</v>
+      </c>
+      <c r="I56">
+        <v>1153</v>
+      </c>
+      <c r="J56">
+        <v>19771</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4443</v>
+      </c>
+      <c r="O56">
+        <v>34016</v>
+      </c>
+      <c r="P56">
+        <v>20959</v>
+      </c>
+      <c r="Q56">
+        <v>-38</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>45500</v>
+      </c>
+      <c r="T56">
+        <v>16598</v>
+      </c>
+      <c r="U56">
+        <v>181</v>
+      </c>
+      <c r="V56">
+        <v>1129</v>
+      </c>
+      <c r="W56">
+        <v>-307</v>
+      </c>
+      <c r="X56">
+        <v>-430</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>188</v>
+      </c>
+      <c r="D57">
+        <v>4514</v>
+      </c>
+      <c r="E57">
+        <v>1978</v>
+      </c>
+      <c r="F57">
+        <v>2539</v>
+      </c>
+      <c r="G57">
+        <v>4018</v>
+      </c>
+      <c r="H57">
+        <v>50646</v>
+      </c>
+      <c r="I57">
+        <v>1069</v>
+      </c>
+      <c r="J57">
+        <v>19982</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4577</v>
+      </c>
+      <c r="O57">
+        <v>34201</v>
+      </c>
+      <c r="P57">
+        <v>21151</v>
+      </c>
+      <c r="Q57">
+        <v>553</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>45100</v>
+      </c>
+      <c r="T57">
+        <v>16445</v>
+      </c>
+      <c r="U57">
+        <v>734</v>
+      </c>
+      <c r="V57">
+        <v>1428</v>
+      </c>
+      <c r="W57">
+        <v>-308</v>
+      </c>
+      <c r="X57">
+        <v>-181</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>188</v>
+      </c>
+      <c r="D58">
+        <v>4438</v>
+      </c>
+      <c r="E58">
+        <v>1966</v>
+      </c>
+      <c r="F58">
+        <v>2925</v>
+      </c>
+      <c r="G58">
+        <v>2696</v>
+      </c>
+      <c r="H58">
+        <v>49103</v>
+      </c>
+      <c r="I58">
+        <v>1226</v>
+      </c>
+      <c r="J58">
+        <v>19953</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3918</v>
+      </c>
+      <c r="O58">
+        <v>34080</v>
+      </c>
+      <c r="P58">
+        <v>20503</v>
+      </c>
+      <c r="Q58">
+        <v>-606</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>45000</v>
+      </c>
+      <c r="T58">
+        <v>15023</v>
+      </c>
+      <c r="U58">
+        <v>128</v>
+      </c>
+      <c r="V58">
+        <v>1251</v>
+      </c>
+      <c r="W58">
+        <v>-304</v>
+      </c>
+      <c r="X58">
+        <v>-893</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>192</v>
+      </c>
+      <c r="D59">
+        <v>4451</v>
+      </c>
+      <c r="E59">
+        <v>1973</v>
+      </c>
+      <c r="F59">
+        <v>2540</v>
+      </c>
+      <c r="G59">
+        <v>3468</v>
+      </c>
+      <c r="H59">
+        <v>49520</v>
+      </c>
+      <c r="I59">
+        <v>1068</v>
+      </c>
+      <c r="J59">
+        <v>20254</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-811</v>
+      </c>
+      <c r="N59">
+        <v>3579</v>
+      </c>
+      <c r="O59">
+        <v>34755</v>
+      </c>
+      <c r="P59">
+        <v>20456</v>
+      </c>
+      <c r="Q59">
+        <v>27</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>44800</v>
+      </c>
+      <c r="T59">
+        <v>14765</v>
+      </c>
+      <c r="U59">
+        <v>155</v>
+      </c>
+      <c r="V59">
+        <v>1336</v>
+      </c>
+      <c r="W59">
+        <v>-304</v>
+      </c>
+      <c r="X59">
+        <v>-699</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>143</v>
+      </c>
+      <c r="D60">
+        <v>4419</v>
+      </c>
+      <c r="E60">
+        <v>1955</v>
+      </c>
+      <c r="F60">
+        <v>2460</v>
+      </c>
+      <c r="G60">
+        <v>3305</v>
+      </c>
+      <c r="H60">
+        <v>48977</v>
+      </c>
+      <c r="I60">
+        <v>1049</v>
+      </c>
+      <c r="J60">
+        <v>18834</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4797</v>
+      </c>
+      <c r="O60">
+        <v>34390</v>
+      </c>
+      <c r="P60">
+        <v>20353</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>44400</v>
+      </c>
+      <c r="T60">
+        <v>14587</v>
+      </c>
+      <c r="U60">
+        <v>155</v>
+      </c>
+      <c r="V60">
+        <v>1145</v>
+      </c>
+      <c r="W60">
+        <v>-305</v>
+      </c>
+      <c r="X60">
+        <v>-497</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>205</v>
+      </c>
+      <c r="D61">
+        <v>4554</v>
+      </c>
+      <c r="E61">
+        <v>1951</v>
+      </c>
+      <c r="F61">
+        <v>2561</v>
+      </c>
+      <c r="G61">
+        <v>3350</v>
+      </c>
+      <c r="H61">
+        <v>48754</v>
+      </c>
+      <c r="I61">
+        <v>1087</v>
+      </c>
+      <c r="J61">
+        <v>18504</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>5547</v>
+      </c>
+      <c r="O61">
+        <v>34504</v>
+      </c>
+      <c r="P61">
+        <v>20414</v>
+      </c>
+      <c r="Q61">
+        <v>200</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>43100</v>
+      </c>
+      <c r="T61">
+        <v>14250</v>
+      </c>
+      <c r="U61">
+        <v>355</v>
+      </c>
+      <c r="V61">
+        <v>1475</v>
+      </c>
+      <c r="W61">
+        <v>-296</v>
+      </c>
+      <c r="X61">
+        <v>-511</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>338</v>
+      </c>
+      <c r="D62">
+        <v>4476</v>
+      </c>
+      <c r="E62">
+        <v>1925</v>
+      </c>
+      <c r="F62">
+        <v>3028</v>
+      </c>
+      <c r="G62">
+        <v>2650</v>
+      </c>
+      <c r="H62">
+        <v>47604</v>
+      </c>
+      <c r="I62">
+        <v>968</v>
+      </c>
+      <c r="J62">
+        <v>18722</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4604</v>
+      </c>
+      <c r="O62">
+        <v>33544</v>
+      </c>
+      <c r="P62">
+        <v>20225</v>
+      </c>
+      <c r="Q62">
+        <v>-229</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>43000</v>
+      </c>
+      <c r="T62">
+        <v>14060</v>
+      </c>
+      <c r="U62">
+        <v>126</v>
+      </c>
+      <c r="V62">
+        <v>1196</v>
+      </c>
+      <c r="W62">
+        <v>-293</v>
+      </c>
+      <c r="X62">
+        <v>-594</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>236</v>
+      </c>
+      <c r="D63">
+        <v>4401</v>
+      </c>
+      <c r="E63">
+        <v>1871</v>
+      </c>
+      <c r="F63">
+        <v>2501</v>
+      </c>
+      <c r="G63">
+        <v>2926</v>
+      </c>
+      <c r="H63">
+        <v>47517</v>
+      </c>
+      <c r="I63">
+        <v>1039</v>
+      </c>
+      <c r="J63">
+        <v>19508</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-435</v>
+      </c>
+      <c r="N63">
+        <v>3826</v>
+      </c>
+      <c r="O63">
+        <v>33481</v>
+      </c>
+      <c r="P63">
+        <v>20025</v>
+      </c>
+      <c r="Q63">
+        <v>312</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>42800</v>
+      </c>
+      <c r="T63">
+        <v>14036</v>
+      </c>
+      <c r="U63">
+        <v>438</v>
+      </c>
+      <c r="V63">
+        <v>1423</v>
+      </c>
+      <c r="W63">
+        <v>-290</v>
+      </c>
+      <c r="X63">
+        <v>-506</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>196</v>
+      </c>
+      <c r="D64">
+        <v>4398</v>
+      </c>
+      <c r="E64">
+        <v>1972</v>
+      </c>
+      <c r="F64">
+        <v>2449</v>
+      </c>
+      <c r="G64">
+        <v>2791</v>
+      </c>
+      <c r="H64">
+        <v>47118</v>
+      </c>
+      <c r="I64">
+        <v>1067</v>
+      </c>
+      <c r="J64">
+        <v>18165</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4842</v>
+      </c>
+      <c r="O64">
+        <v>33133</v>
+      </c>
+      <c r="P64">
+        <v>19616</v>
+      </c>
+      <c r="Q64">
+        <v>-247</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>42800</v>
+      </c>
+      <c r="T64">
+        <v>13985</v>
+      </c>
+      <c r="U64">
+        <v>191</v>
+      </c>
+      <c r="V64">
+        <v>1178</v>
+      </c>
+      <c r="W64">
+        <v>-296</v>
+      </c>
+      <c r="X64">
+        <v>-751</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>152</v>
+      </c>
+      <c r="D65">
+        <v>4382</v>
+      </c>
+      <c r="E65">
+        <v>1957</v>
+      </c>
+      <c r="F65">
+        <v>2386</v>
+      </c>
+      <c r="G65">
+        <v>2728</v>
+      </c>
+      <c r="H65">
+        <v>46796</v>
+      </c>
+      <c r="I65">
+        <v>1036</v>
+      </c>
+      <c r="J65">
+        <v>18184</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4733</v>
+      </c>
+      <c r="O65">
+        <v>32904</v>
+      </c>
+      <c r="P65">
+        <v>19718</v>
+      </c>
+      <c r="Q65">
+        <v>-51</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>42500</v>
+      </c>
+      <c r="T65">
+        <v>13892</v>
+      </c>
+      <c r="U65">
+        <v>140</v>
+      </c>
+      <c r="V65">
+        <v>911</v>
+      </c>
+      <c r="W65">
+        <v>-290</v>
+      </c>
+      <c r="X65">
+        <v>-229</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>42</v>
+      </c>
+      <c r="D66">
+        <v>4289</v>
+      </c>
+      <c r="E66">
+        <v>2003</v>
+      </c>
+      <c r="F66">
+        <v>2842</v>
+      </c>
+      <c r="G66">
+        <v>5162</v>
+      </c>
+      <c r="H66">
+        <v>47017</v>
+      </c>
+      <c r="I66">
+        <v>1179</v>
+      </c>
+      <c r="J66">
+        <v>18185</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>5349</v>
+      </c>
+      <c r="O66">
+        <v>33618</v>
+      </c>
+      <c r="P66">
+        <v>19688</v>
+      </c>
+      <c r="Q66">
+        <v>82</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>40000</v>
+      </c>
+      <c r="T66">
+        <v>13399</v>
+      </c>
+      <c r="U66">
+        <v>222</v>
+      </c>
+      <c r="V66">
+        <v>1096</v>
+      </c>
+      <c r="W66">
+        <v>-291</v>
+      </c>
+      <c r="X66">
+        <v>-32</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>163</v>
+      </c>
+      <c r="D67">
+        <v>4209</v>
+      </c>
+      <c r="E67">
+        <v>1854</v>
+      </c>
+      <c r="F67">
+        <v>2321</v>
+      </c>
+      <c r="G67">
+        <v>4968</v>
+      </c>
+      <c r="H67">
+        <v>46602</v>
+      </c>
+      <c r="I67">
+        <v>994</v>
+      </c>
+      <c r="J67">
+        <v>18180</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-31</v>
+      </c>
+      <c r="N67">
+        <v>5096</v>
+      </c>
+      <c r="O67">
+        <v>33296</v>
+      </c>
+      <c r="P67">
+        <v>19679</v>
+      </c>
+      <c r="Q67">
+        <v>-8</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>40000</v>
+      </c>
+      <c r="T67">
+        <v>13306</v>
+      </c>
+      <c r="U67">
+        <v>214</v>
+      </c>
+      <c r="V67">
+        <v>1057</v>
+      </c>
+      <c r="W67">
+        <v>-296</v>
+      </c>
+      <c r="X67">
+        <v>-333</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>4090</v>
+      </c>
+      <c r="E68">
+        <v>1868</v>
+      </c>
+      <c r="F68">
+        <v>2200</v>
+      </c>
+      <c r="G68">
+        <v>2908</v>
+      </c>
+      <c r="H68">
+        <v>50925</v>
+      </c>
+      <c r="I68">
+        <v>944</v>
+      </c>
+      <c r="J68">
+        <v>24881</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3243</v>
+      </c>
+      <c r="O68">
+        <v>37839</v>
+      </c>
+      <c r="P68">
+        <v>25077</v>
+      </c>
+      <c r="Q68">
+        <v>6141</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>39800</v>
+      </c>
+      <c r="T68">
+        <v>13086</v>
+      </c>
+      <c r="U68">
+        <v>342</v>
+      </c>
+      <c r="V68">
+        <v>685</v>
+      </c>
+      <c r="W68">
+        <v>-294</v>
+      </c>
+      <c r="X68">
+        <v>4818</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>92</v>
+      </c>
+      <c r="D69">
+        <v>4034</v>
+      </c>
+      <c r="E69">
+        <v>1888</v>
+      </c>
+      <c r="F69">
+        <v>2107</v>
+      </c>
+      <c r="G69">
+        <v>2694</v>
+      </c>
+      <c r="H69">
+        <v>50536</v>
+      </c>
+      <c r="I69">
+        <v>939</v>
+      </c>
+      <c r="J69">
+        <v>24854</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>3266</v>
+      </c>
+      <c r="O69">
+        <v>37576</v>
+      </c>
+      <c r="P69">
+        <v>24978</v>
+      </c>
+      <c r="Q69">
+        <v>-193</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>39500</v>
+      </c>
+      <c r="T69">
+        <v>12960</v>
+      </c>
+      <c r="U69">
+        <v>160</v>
+      </c>
+      <c r="V69">
+        <v>958</v>
+      </c>
+      <c r="W69">
+        <v>-291</v>
+      </c>
+      <c r="X69">
+        <v>-395</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1117</v>
+      </c>
+      <c r="D70">
+        <v>5323</v>
+      </c>
+      <c r="E70">
+        <v>2517</v>
+      </c>
+      <c r="F70">
+        <v>2825</v>
+      </c>
+      <c r="G70">
+        <v>4194</v>
+      </c>
+      <c r="H70">
+        <v>75611</v>
+      </c>
+      <c r="I70">
+        <v>1555</v>
+      </c>
+      <c r="J70">
+        <v>37283</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4857</v>
+      </c>
+      <c r="O70">
+        <v>52120</v>
+      </c>
+      <c r="P70">
+        <v>37726</v>
+      </c>
+      <c r="Q70">
+        <v>-5577</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>51000</v>
+      </c>
+      <c r="T70">
+        <v>23491</v>
+      </c>
+      <c r="U70">
+        <v>551</v>
+      </c>
+      <c r="V70">
+        <v>1178</v>
+      </c>
+      <c r="W70">
+        <v>-572</v>
+      </c>
+      <c r="X70">
+        <v>1266</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>115</v>
+      </c>
+      <c r="D71">
+        <v>5945</v>
+      </c>
+      <c r="E71">
+        <v>2432</v>
+      </c>
+      <c r="F71">
+        <v>3142</v>
+      </c>
+      <c r="G71">
+        <v>4183</v>
+      </c>
+      <c r="H71">
+        <v>74793</v>
+      </c>
+      <c r="I71">
+        <v>1508</v>
+      </c>
+      <c r="J71">
+        <v>36940</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-473</v>
+      </c>
+      <c r="N71">
+        <v>4767</v>
+      </c>
+      <c r="O71">
+        <v>51350</v>
+      </c>
+      <c r="P71">
+        <v>37377</v>
+      </c>
+      <c r="Q71">
+        <v>-50</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>50000</v>
+      </c>
+      <c r="T71">
+        <v>23443</v>
+      </c>
+      <c r="U71">
+        <v>501</v>
+      </c>
+      <c r="V71">
+        <v>1667</v>
+      </c>
+      <c r="W71">
+        <v>-580</v>
+      </c>
+      <c r="X71">
+        <v>-949</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>292</v>
+      </c>
+      <c r="D72">
+        <v>5902</v>
+      </c>
+      <c r="E72">
+        <v>2471</v>
+      </c>
+      <c r="F72">
+        <v>3172</v>
+      </c>
+      <c r="G72">
+        <v>4451</v>
+      </c>
+      <c r="H72">
+        <v>74346</v>
+      </c>
+      <c r="I72">
+        <v>1360</v>
+      </c>
+      <c r="J72">
+        <v>36878</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>4521</v>
+      </c>
+      <c r="O72">
+        <v>51357</v>
+      </c>
+      <c r="P72">
+        <v>37315</v>
+      </c>
+      <c r="Q72">
+        <v>195</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>47000</v>
+      </c>
+      <c r="T72">
+        <v>22989</v>
+      </c>
+      <c r="U72">
+        <v>700</v>
+      </c>
+      <c r="V72">
+        <v>1582</v>
+      </c>
+      <c r="W72">
+        <v>-576</v>
+      </c>
+      <c r="X72">
+        <v>-643</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>272</v>
+      </c>
+      <c r="D73">
+        <v>5818</v>
+      </c>
+      <c r="E73">
+        <v>2824</v>
+      </c>
+      <c r="F73">
+        <v>3146</v>
+      </c>
+      <c r="G73">
+        <v>4114</v>
+      </c>
+      <c r="H73">
+        <v>73371</v>
+      </c>
+      <c r="I73">
+        <v>1387</v>
+      </c>
+      <c r="J73">
+        <v>35749</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>5286</v>
+      </c>
+      <c r="O73">
+        <v>50568</v>
+      </c>
+      <c r="P73">
+        <v>36527</v>
+      </c>
+      <c r="Q73">
+        <v>-312</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>46000</v>
+      </c>
+      <c r="T73">
+        <v>22803</v>
+      </c>
+      <c r="U73">
+        <v>390</v>
+      </c>
+      <c r="V73">
+        <v>1787</v>
+      </c>
+      <c r="W73">
+        <v>-579</v>
+      </c>
+      <c r="X73">
+        <v>-1415</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-2412</v>
+      </c>
+      <c r="D74">
+        <v>5778</v>
+      </c>
+      <c r="E74">
+        <v>2429</v>
+      </c>
+      <c r="F74">
+        <v>3121</v>
+      </c>
+      <c r="G74">
+        <v>3820</v>
+      </c>
+      <c r="H74">
+        <v>70256</v>
+      </c>
+      <c r="I74">
+        <v>1933</v>
+      </c>
+      <c r="J74">
+        <v>35213</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>5531</v>
+      </c>
+      <c r="O74">
+        <v>50428</v>
+      </c>
+      <c r="P74">
+        <v>36061</v>
+      </c>
+      <c r="Q74">
+        <v>98</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>45000</v>
+      </c>
+      <c r="T74">
+        <v>19828</v>
+      </c>
+      <c r="U74">
+        <v>488</v>
+      </c>
+      <c r="V74">
+        <v>1996</v>
+      </c>
+      <c r="W74">
+        <v>-577</v>
+      </c>
+      <c r="X74">
+        <v>-1016</v>
+      </c>
+      <c r="Y74">
+        <v>196</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>-2412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-6165</v>
+      </c>
+      <c r="D75">
+        <v>5427</v>
+      </c>
+      <c r="E75">
+        <v>2405</v>
+      </c>
+      <c r="F75">
+        <v>3127</v>
+      </c>
+      <c r="G75">
+        <v>3820</v>
+      </c>
+      <c r="H75">
+        <v>64788</v>
+      </c>
+      <c r="I75">
+        <v>1481</v>
+      </c>
+      <c r="J75">
+        <v>34668</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-153</v>
+      </c>
+      <c r="N75">
+        <v>5373</v>
+      </c>
+      <c r="O75">
+        <v>51245</v>
+      </c>
+      <c r="P75">
+        <v>37552</v>
+      </c>
+      <c r="Q75">
+        <v>-44</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>13543</v>
+      </c>
+      <c r="U75">
+        <v>441</v>
+      </c>
+      <c r="V75">
+        <v>1182</v>
+      </c>
+      <c r="W75">
+        <v>-285</v>
+      </c>
+      <c r="X75">
+        <v>-320</v>
+      </c>
+      <c r="Y75">
+        <v>1691</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>-6165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>371</v>
+      </c>
+      <c r="D76">
+        <v>5375</v>
+      </c>
+      <c r="E76">
+        <v>2503</v>
+      </c>
+      <c r="F76">
+        <v>3132</v>
+      </c>
+      <c r="G76">
+        <v>3878</v>
+      </c>
+      <c r="H76">
+        <v>64508</v>
+      </c>
+      <c r="I76">
+        <v>1634</v>
+      </c>
+      <c r="J76">
+        <v>33005</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6495</v>
+      </c>
+      <c r="O76">
+        <v>50816</v>
+      </c>
+      <c r="P76">
+        <v>36743</v>
+      </c>
+      <c r="Q76">
+        <v>-34</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>43000</v>
+      </c>
+      <c r="T76">
+        <v>13692</v>
+      </c>
+      <c r="U76">
+        <v>410</v>
+      </c>
+      <c r="V76">
+        <v>1701</v>
+      </c>
+      <c r="W76">
+        <v>-269</v>
+      </c>
+      <c r="X76">
+        <v>-924</v>
+      </c>
+      <c r="Y76">
+        <v>1655</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>302</v>
+      </c>
+      <c r="D77">
+        <v>5350</v>
+      </c>
+      <c r="E77">
+        <v>2341</v>
+      </c>
+      <c r="F77">
+        <v>3016</v>
+      </c>
+      <c r="G77">
+        <v>4589</v>
+      </c>
+      <c r="H77">
+        <v>64728</v>
+      </c>
+      <c r="I77">
+        <v>1712</v>
+      </c>
+      <c r="J77">
+        <v>33199</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>6589</v>
+      </c>
+      <c r="O77">
+        <v>51054</v>
+      </c>
+      <c r="P77">
+        <v>36895</v>
+      </c>
+      <c r="Q77">
+        <v>991</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>43000</v>
+      </c>
+      <c r="T77">
+        <v>13674</v>
+      </c>
+      <c r="U77">
+        <v>1404</v>
+      </c>
+      <c r="V77">
+        <v>1888</v>
+      </c>
+      <c r="W77">
+        <v>-275</v>
+      </c>
+      <c r="X77">
+        <v>57</v>
+      </c>
+      <c r="Y77">
+        <v>1533</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>223</v>
+      </c>
+      <c r="D78">
+        <v>5306</v>
+      </c>
+      <c r="E78">
+        <v>2281</v>
+      </c>
+      <c r="F78">
+        <v>3049</v>
+      </c>
+      <c r="G78">
+        <v>4768</v>
+      </c>
+      <c r="H78">
+        <v>64742</v>
+      </c>
+      <c r="I78">
+        <v>1724</v>
+      </c>
+      <c r="J78">
+        <v>32209</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>7258</v>
+      </c>
+      <c r="O78">
+        <v>51272</v>
+      </c>
+      <c r="P78">
+        <v>36452</v>
+      </c>
+      <c r="Q78">
+        <v>286</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>42500</v>
+      </c>
+      <c r="T78">
+        <v>13470</v>
+      </c>
+      <c r="U78">
+        <v>1690</v>
+      </c>
+      <c r="V78">
+        <v>1909</v>
+      </c>
+      <c r="W78">
+        <v>-271</v>
+      </c>
+      <c r="X78">
+        <v>-724</v>
+      </c>
+      <c r="Y78">
+        <v>1527</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>314</v>
+      </c>
+      <c r="D79">
+        <v>5228</v>
+      </c>
+      <c r="E79">
+        <v>2208</v>
+      </c>
+      <c r="F79">
+        <v>2993</v>
+      </c>
+      <c r="G79">
+        <v>4690</v>
+      </c>
+      <c r="H79">
+        <v>64056</v>
+      </c>
+      <c r="I79">
+        <v>1581</v>
+      </c>
+      <c r="J79">
+        <v>33276</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-2488</v>
+      </c>
+      <c r="N79">
+        <v>5703</v>
+      </c>
+      <c r="O79">
+        <v>50765</v>
+      </c>
+      <c r="P79">
+        <v>36342</v>
+      </c>
+      <c r="Q79">
+        <v>-126</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>13291</v>
+      </c>
+      <c r="U79">
+        <v>1564</v>
+      </c>
+      <c r="V79">
+        <v>1299</v>
+      </c>
+      <c r="W79">
+        <v>-291</v>
+      </c>
+      <c r="X79">
+        <v>-486</v>
+      </c>
+      <c r="Y79">
+        <v>1521</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>377</v>
+      </c>
+      <c r="D80">
+        <v>5192</v>
+      </c>
+      <c r="E80">
+        <v>2215</v>
+      </c>
+      <c r="F80">
+        <v>2960</v>
+      </c>
+      <c r="G80">
+        <v>4858</v>
+      </c>
+      <c r="H80">
+        <v>64171</v>
+      </c>
+      <c r="I80">
+        <v>1448</v>
+      </c>
+      <c r="J80">
+        <v>31212</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>7472</v>
+      </c>
+      <c r="O80">
+        <v>50709</v>
+      </c>
+      <c r="P80">
+        <v>34773</v>
+      </c>
+      <c r="Q80">
+        <v>193</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>40000</v>
+      </c>
+      <c r="T80">
+        <v>13462</v>
+      </c>
+      <c r="U80">
+        <v>1763</v>
+      </c>
+      <c r="V80">
+        <v>1749</v>
+      </c>
+      <c r="W80">
+        <v>-271</v>
+      </c>
+      <c r="X80">
+        <v>-597</v>
+      </c>
+      <c r="Y80">
+        <v>202</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>366</v>
+      </c>
+      <c r="D81">
+        <v>5167</v>
+      </c>
+      <c r="E81">
+        <v>2178</v>
+      </c>
+      <c r="F81">
+        <v>2931</v>
+      </c>
+      <c r="G81">
+        <v>3504</v>
+      </c>
+      <c r="H81">
+        <v>62599</v>
+      </c>
+      <c r="I81">
+        <v>1364</v>
+      </c>
+      <c r="J81">
+        <v>30813</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>5879</v>
+      </c>
+      <c r="O81">
+        <v>48910</v>
+      </c>
+      <c r="P81">
+        <v>32993</v>
+      </c>
+      <c r="Q81">
+        <v>-1237</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>39000</v>
+      </c>
+      <c r="T81">
+        <v>13689</v>
+      </c>
+      <c r="U81">
+        <v>526</v>
+      </c>
+      <c r="V81">
+        <v>1794</v>
+      </c>
+      <c r="W81">
+        <v>-275</v>
+      </c>
+      <c r="X81">
+        <v>-2089</v>
+      </c>
+      <c r="Y81">
+        <v>292</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-2289</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5125</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1937</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>2894</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3176</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>59394</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1134</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>29143</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>6634</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>48232</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>33621</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-120</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>39000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11162</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>406</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1682</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-272</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1078</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>1672</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-2289</v>
       </c>
     </row>
